--- a/Вектор развития ru-en 1.0 (57).xlsx
+++ b/Вектор развития ru-en 1.0 (57).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="270" yWindow="615" windowWidth="20730" windowHeight="9600"/>
@@ -12,14 +12,14 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Вектор_развития_ru_en" localSheetId="0">Лист1!$A$1:$G$689</definedName>
+    <definedName name="Вектор_развития_ru_en" localSheetId="0">Лист1!$A$1:$G$688</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="1651">
   <si>
     <t>ИД (не изменять)</t>
   </si>
@@ -3581,9 +3581,6 @@
   </si>
   <si>
     <t>Dermatologist</t>
-  </si>
-  <si>
-    <t>Зубной врач</t>
   </si>
   <si>
     <t>Dentist</t>
@@ -5461,7 +5458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G690"/>
+  <dimension ref="A1:G689"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5507,7 +5504,7 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5519,7 +5516,7 @@
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E3" s="10" t="str">
         <f>IF(ISBLANK(C3),"","&lt;!-- "&amp;C3&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A3&amp;"""&gt;"&amp;SUBSTITUTE(D3,"""","\""")&amp;"&lt;/string&gt;"</f>
@@ -5544,7 +5541,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E4" s="10" t="str">
         <f t="shared" ref="E4:E67" si="0">IF(ISBLANK(C4),"","&lt;!-- "&amp;C4&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A4&amp;"""&gt;"&amp;SUBSTITUTE(D4,"""","\""")&amp;"&lt;/string&gt;"</f>
@@ -5555,7 +5552,7 @@
         <v>&lt;!-- \n - символ переноса строки --&gt;NEWLINE&lt;string name="app_name_splash"&gt;Вектор\nразвития&lt;/string&gt;</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5567,7 +5564,7 @@
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E5" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5578,7 +5575,7 @@
         <v>&lt;string name="drawer_item_calendar"&gt;Календарь&lt;/string&gt;</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5590,7 +5587,7 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5601,7 +5598,7 @@
         <v>&lt;string name="drawer_item_development_diary"&gt;Дневник развития&lt;/string&gt;</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5613,7 +5610,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5633,7 +5630,7 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5653,7 +5650,7 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="E9" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5673,7 +5670,7 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5693,7 +5690,7 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5713,7 +5710,7 @@
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E12" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5733,7 +5730,7 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E13" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5753,7 +5750,7 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5775,7 +5772,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E15" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5795,7 +5792,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E16" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5875,7 +5872,7 @@
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E20" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5888,14 +5885,14 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E21" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5908,14 +5905,14 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E22" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5935,7 +5932,7 @@
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E23" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5955,7 +5952,7 @@
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E24" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5975,7 +5972,7 @@
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E25" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5995,7 +5992,7 @@
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E26" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6015,7 +6012,7 @@
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E27" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6037,7 +6034,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E28" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6077,7 +6074,7 @@
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E30" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6097,7 +6094,7 @@
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E31" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6117,7 +6114,7 @@
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E32" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6137,7 +6134,7 @@
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E33" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6177,7 +6174,7 @@
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E35" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6197,7 +6194,7 @@
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E36" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6217,7 +6214,7 @@
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E37" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6257,7 +6254,7 @@
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E39" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6297,7 +6294,7 @@
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E41" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6597,7 +6594,7 @@
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E56" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6617,7 +6614,7 @@
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E57" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6837,7 +6834,7 @@
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E68" s="10" t="str">
         <f t="shared" ref="E68:E131" si="2">IF(ISBLANK(C68),"","&lt;!-- "&amp;C68&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A68&amp;"""&gt;"&amp;SUBSTITUTE(D68,"""","\""")&amp;"&lt;/string&gt;"</f>
@@ -6917,7 +6914,7 @@
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E72" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6957,7 +6954,7 @@
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E74" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6977,7 +6974,7 @@
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E75" s="10" t="str">
         <f t="shared" si="2"/>
@@ -6997,7 +6994,7 @@
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E76" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7017,7 +7014,7 @@
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E77" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7037,7 +7034,7 @@
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E78" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7057,7 +7054,7 @@
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E79" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7077,7 +7074,7 @@
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E80" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7097,7 +7094,7 @@
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E81" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7117,7 +7114,7 @@
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E82" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7137,7 +7134,7 @@
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E83" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7157,7 +7154,7 @@
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E84" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7177,7 +7174,7 @@
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E85" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7197,7 +7194,7 @@
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E86" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7217,7 +7214,7 @@
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E87" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7237,7 +7234,7 @@
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E88" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7257,7 +7254,7 @@
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E89" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7277,7 +7274,7 @@
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="10" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E90" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7297,7 +7294,7 @@
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E91" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7317,7 +7314,7 @@
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E92" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7337,7 +7334,7 @@
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E93" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7357,7 +7354,7 @@
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E94" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7377,7 +7374,7 @@
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="10" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E95" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7397,7 +7394,7 @@
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E96" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7437,7 +7434,7 @@
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E98" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7457,7 +7454,7 @@
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E99" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7497,7 +7494,7 @@
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E101" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7517,7 +7514,7 @@
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E102" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7537,7 +7534,7 @@
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E103" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7559,7 +7556,7 @@
         <v>242</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E104" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7579,7 +7576,7 @@
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="10" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E105" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7599,7 +7596,7 @@
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E106" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7621,7 +7618,7 @@
         <v>249</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E107" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7663,7 +7660,7 @@
         <v>255</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E109" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7705,7 +7702,7 @@
         <v>261</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E111" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7727,7 +7724,7 @@
         <v>264</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E112" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7749,7 +7746,7 @@
         <v>267</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E113" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7771,7 +7768,7 @@
         <v>270</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E114" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7791,7 +7788,7 @@
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="10" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E115" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7811,7 +7808,7 @@
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E116" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7831,7 +7828,7 @@
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E117" s="10" t="str">
         <f t="shared" si="2"/>
@@ -7991,7 +7988,7 @@
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="10" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E125" s="10" t="str">
         <f t="shared" si="2"/>
@@ -8011,7 +8008,7 @@
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="10" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E126" s="10" t="str">
         <f t="shared" si="2"/>
@@ -8111,7 +8108,7 @@
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E131" s="10" t="str">
         <f t="shared" si="2"/>
@@ -8191,7 +8188,7 @@
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E135" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8271,7 +8268,7 @@
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="10" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E139" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8511,7 +8508,7 @@
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E151" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8693,7 +8690,7 @@
         <v>399</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E160" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8715,7 +8712,7 @@
         <v>399</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E161" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8771,11 +8768,11 @@
         <v>408</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E164" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8791,11 +8788,11 @@
         <v>409</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E165" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8811,11 +8808,11 @@
         <v>410</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E166" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8831,11 +8828,11 @@
         <v>411</v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E167" s="10" t="str">
         <f t="shared" si="4"/>
@@ -8975,7 +8972,7 @@
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="10" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E174" s="10" t="str">
         <f t="shared" si="4"/>
@@ -9157,7 +9154,7 @@
         <v>458</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E183" s="10" t="str">
         <f t="shared" si="4"/>
@@ -9179,7 +9176,7 @@
         <v>461</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E184" s="10" t="str">
         <f t="shared" si="4"/>
@@ -9201,7 +9198,7 @@
         <v>464</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E185" s="10" t="str">
         <f t="shared" si="4"/>
@@ -9241,7 +9238,7 @@
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="10" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E187" s="10" t="str">
         <f t="shared" si="4"/>
@@ -9381,7 +9378,7 @@
       </c>
       <c r="C194" s="10"/>
       <c r="D194" s="10" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E194" s="10" t="str">
         <f t="shared" si="4"/>
@@ -9401,7 +9398,7 @@
       </c>
       <c r="C195" s="10"/>
       <c r="D195" s="10" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E195" s="10" t="str">
         <f t="shared" si="4"/>
@@ -9421,7 +9418,7 @@
       </c>
       <c r="C196" s="10"/>
       <c r="D196" s="10" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E196" s="10" t="str">
         <f t="shared" ref="E196:E259" si="6">IF(ISBLANK(C196),"","&lt;!-- "&amp;C196&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A196&amp;"""&gt;"&amp;SUBSTITUTE(D196,"""","\""")&amp;"&lt;/string&gt;"</f>
@@ -9441,7 +9438,7 @@
       </c>
       <c r="C197" s="10"/>
       <c r="D197" s="10" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E197" s="10" t="str">
         <f t="shared" si="6"/>
@@ -9521,7 +9518,7 @@
       </c>
       <c r="C201" s="10"/>
       <c r="D201" s="10" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E201" s="10" t="str">
         <f t="shared" si="6"/>
@@ -9581,7 +9578,7 @@
       </c>
       <c r="C204" s="10"/>
       <c r="D204" s="10" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E204" s="10" t="str">
         <f t="shared" si="6"/>
@@ -9621,7 +9618,7 @@
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E206" s="10" t="str">
         <f t="shared" si="6"/>
@@ -9641,7 +9638,7 @@
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="10" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E207" s="10" t="str">
         <f t="shared" si="6"/>
@@ -9681,7 +9678,7 @@
       </c>
       <c r="C209" s="10"/>
       <c r="D209" s="10" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E209" s="10" t="str">
         <f t="shared" si="6"/>
@@ -9701,7 +9698,7 @@
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="10" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E210" s="10" t="str">
         <f t="shared" si="6"/>
@@ -9721,7 +9718,7 @@
       </c>
       <c r="C211" s="10"/>
       <c r="D211" s="10" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E211" s="10" t="str">
         <f t="shared" si="6"/>
@@ -9737,11 +9734,11 @@
         <v>532</v>
       </c>
       <c r="B212" s="10" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E212" s="10" t="str">
         <f t="shared" si="6"/>
@@ -9761,7 +9758,7 @@
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="10" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E213" s="10" t="str">
         <f t="shared" si="6"/>
@@ -9801,7 +9798,7 @@
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E215" s="10" t="str">
         <f t="shared" si="6"/>
@@ -10206,7 +10203,7 @@
         <v>600</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D235" s="10" t="s">
         <v>601</v>
@@ -10409,7 +10406,7 @@
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E245" s="10" t="str">
         <f t="shared" si="6"/>
@@ -10429,7 +10426,7 @@
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="10" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E246" s="10" t="str">
         <f t="shared" si="6"/>
@@ -10529,7 +10526,7 @@
       </c>
       <c r="C251" s="10"/>
       <c r="D251" s="10" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E251" s="10" t="str">
         <f t="shared" si="6"/>
@@ -10569,7 +10566,7 @@
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E253" s="10" t="str">
         <f t="shared" si="6"/>
@@ -10589,7 +10586,7 @@
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="10" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E254" s="10" t="str">
         <f t="shared" si="6"/>
@@ -10705,13 +10702,13 @@
         <v>669</v>
       </c>
       <c r="B260" s="10" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="C260" s="10" t="s">
         <v>670</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E260" s="10" t="str">
         <f t="shared" ref="E260:E322" si="8">IF(ISBLANK(C260),"","&lt;!-- "&amp;C260&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A260&amp;"""&gt;"&amp;SUBSTITUTE(D260,"""","\""")&amp;"&lt;/string&gt;"</f>
@@ -10931,7 +10928,7 @@
       </c>
       <c r="C271" s="10"/>
       <c r="D271" s="10" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E271" s="10" t="str">
         <f t="shared" si="8"/>
@@ -10951,7 +10948,7 @@
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="10" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E272" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11011,7 +11008,7 @@
       </c>
       <c r="C275" s="10"/>
       <c r="D275" s="10" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E275" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11031,7 +11028,7 @@
       </c>
       <c r="C276" s="10"/>
       <c r="D276" s="10" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E276" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11171,7 +11168,7 @@
       </c>
       <c r="C283" s="10"/>
       <c r="D283" s="10" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E283" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11651,7 +11648,7 @@
       </c>
       <c r="C307" s="10"/>
       <c r="D307" s="10" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E307" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11693,7 +11690,7 @@
         <v>807</v>
       </c>
       <c r="D309" s="10" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E309" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11855,7 +11852,7 @@
         <v>11</v>
       </c>
       <c r="D317" s="10" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E317" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11875,7 +11872,7 @@
       </c>
       <c r="C318" s="10"/>
       <c r="D318" s="10" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E318" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11897,7 +11894,7 @@
         <v>835</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E319" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11919,7 +11916,7 @@
         <v>838</v>
       </c>
       <c r="D320" s="10" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E320" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11932,14 +11929,14 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="C321" s="10"/>
       <c r="D321" s="10" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E321" s="10" t="str">
         <f t="shared" si="8"/>
@@ -11952,14 +11949,14 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B322" s="10" t="s">
         <v>1639</v>
-      </c>
-      <c r="B322" s="10" t="s">
-        <v>1640</v>
       </c>
       <c r="C322" s="10"/>
       <c r="D322" s="10" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E322" s="10" t="str">
         <f t="shared" si="8"/>
@@ -12244,10 +12241,10 @@
       <c r="C337" s="10"/>
       <c r="D337" s="10"/>
       <c r="E337" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F337" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12514,10 +12511,10 @@
       <c r="C351" s="10"/>
       <c r="D351" s="10"/>
       <c r="E351" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F351" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="352" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12559,7 +12556,7 @@
         <v>884</v>
       </c>
       <c r="D354" s="10" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="E354" s="10" t="str">
         <f>IF(ISBLANK(C354),"","&lt;!-- "&amp;C354&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A354&amp;"""&gt;"&amp;SUBSTITUTE(D354,"""","\""")&amp;"&lt;/item&gt;"</f>
@@ -12581,7 +12578,7 @@
         <v>887</v>
       </c>
       <c r="D355" s="10" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E355" s="10" t="str">
         <f t="shared" ref="E355:E372" si="14">IF(ISBLANK(C355),"","&lt;!-- "&amp;C355&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item quantity="""&amp;A355&amp;"""&gt;"&amp;SUBSTITUTE(D355,"""","\""")&amp;"&lt;/item&gt;"</f>
@@ -12603,7 +12600,7 @@
         <v>888</v>
       </c>
       <c r="D356" s="10" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E356" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12625,7 +12622,7 @@
         <v>890</v>
       </c>
       <c r="D357" s="10" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E357" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12647,7 +12644,7 @@
         <v>892</v>
       </c>
       <c r="D358" s="10" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E358" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12666,10 +12663,10 @@
       <c r="C359" s="10"/>
       <c r="D359" s="10"/>
       <c r="E359" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="F359" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="360" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -12701,7 +12698,7 @@
         <v>895</v>
       </c>
       <c r="D361" s="10" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E361" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12723,7 +12720,7 @@
         <v>897</v>
       </c>
       <c r="D362" s="10" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E362" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12745,7 +12742,7 @@
         <v>888</v>
       </c>
       <c r="D363" s="10" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E363" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12767,7 +12764,7 @@
         <v>899</v>
       </c>
       <c r="D364" s="10" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E364" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12789,7 +12786,7 @@
         <v>900</v>
       </c>
       <c r="D365" s="10" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E365" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12808,10 +12805,10 @@
       <c r="C366" s="10"/>
       <c r="D366" s="10"/>
       <c r="E366" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="F366" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="367" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -12843,7 +12840,7 @@
         <v>903</v>
       </c>
       <c r="D368" s="10" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="E368" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12865,7 +12862,7 @@
         <v>905</v>
       </c>
       <c r="D369" s="10" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E369" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12887,7 +12884,7 @@
         <v>888</v>
       </c>
       <c r="D370" s="10" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E370" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12909,7 +12906,7 @@
         <v>907</v>
       </c>
       <c r="D371" s="10" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E371" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12931,7 +12928,7 @@
         <v>908</v>
       </c>
       <c r="D372" s="10" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E372" s="10" t="str">
         <f t="shared" si="14"/>
@@ -12950,10 +12947,10 @@
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
       <c r="E373" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="F373" s="10" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -12975,7 +12972,7 @@
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="10" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E375" s="10" t="str">
         <f t="shared" ref="E375:E378" si="18">IF(ISBLANK(C375),"","&lt;!-- "&amp;C375&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A375&amp;"""&gt;"&amp;SUBSTITUTE(D375,"""","\""")&amp;"&lt;/string&gt;"</f>
@@ -13015,7 +13012,7 @@
       </c>
       <c r="C377" s="10"/>
       <c r="D377" s="10" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E377" s="10" t="str">
         <f t="shared" si="18"/>
@@ -13035,7 +13032,7 @@
       </c>
       <c r="C378" s="10"/>
       <c r="D378" s="10" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E378" s="10" t="str">
         <f t="shared" si="18"/>
@@ -13071,7 +13068,7 @@
       </c>
       <c r="C380" s="10"/>
       <c r="D380" s="10" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E380" s="10" t="str">
         <f t="shared" ref="E380:E381" si="20">IF(ISBLANK(C380),"","&lt;!-- "&amp;C380&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D380,"""","\""")&amp;"&lt;/item&gt;"</f>
@@ -13110,10 +13107,10 @@
       <c r="C382" s="10"/>
       <c r="D382" s="10"/>
       <c r="E382" s="13" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F382" s="13" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13280,10 +13277,10 @@
       <c r="C391" s="10"/>
       <c r="D391" s="10"/>
       <c r="E391" s="13" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F391" s="13" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -13305,7 +13302,7 @@
       </c>
       <c r="C393" s="10"/>
       <c r="D393" s="10" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E393" s="10" t="str">
         <f t="shared" ref="E393:E396" si="24">IF(ISBLANK(C393),"","&lt;!-- "&amp;C393&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string name="""&amp;A393&amp;"""&gt;"&amp;SUBSTITUTE(D393,"""","\""")&amp;"&lt;/string&gt;"</f>
@@ -13401,7 +13398,7 @@
       </c>
       <c r="C398" s="10"/>
       <c r="D398" s="10" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E398" s="10" t="str">
         <f t="shared" ref="E398:E404" si="26">IF(ISBLANK(C398),"","&lt;!-- "&amp;C398&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D398,"""","\""")&amp;"&lt;/item&gt;"</f>
@@ -13421,7 +13418,7 @@
       </c>
       <c r="C399" s="10"/>
       <c r="D399" s="10" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E399" s="10" t="str">
         <f t="shared" si="26"/>
@@ -13441,7 +13438,7 @@
       </c>
       <c r="C400" s="10"/>
       <c r="D400" s="10" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E400" s="10" t="str">
         <f t="shared" si="26"/>
@@ -13457,11 +13454,11 @@
         <v>841</v>
       </c>
       <c r="B401" s="10" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="C401" s="10"/>
       <c r="D401" s="10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E401" s="10" t="str">
         <f t="shared" si="26"/>
@@ -13517,11 +13514,11 @@
         <v>841</v>
       </c>
       <c r="B404" s="10" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="C404" s="10"/>
       <c r="D404" s="10" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E404" s="10" t="str">
         <f t="shared" si="26"/>
@@ -13540,10 +13537,10 @@
       <c r="C405" s="10"/>
       <c r="D405" s="10"/>
       <c r="E405" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F405" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13591,7 +13588,7 @@
       </c>
       <c r="C408" s="10"/>
       <c r="D408" s="10" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E408" s="10" t="str">
         <f t="shared" si="28"/>
@@ -13607,11 +13604,11 @@
         <v>841</v>
       </c>
       <c r="B409" s="10" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="C409" s="10"/>
       <c r="D409" s="10" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E409" s="10" t="str">
         <f t="shared" si="28"/>
@@ -13647,7 +13644,7 @@
         <v>841</v>
       </c>
       <c r="B411" s="10" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="C411" s="10"/>
       <c r="D411" s="10" t="s">
@@ -13710,10 +13707,10 @@
       <c r="C414" s="10"/>
       <c r="D414" s="10"/>
       <c r="E414" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F414" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13781,7 +13778,7 @@
       </c>
       <c r="C418" s="10"/>
       <c r="D418" s="10" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E418" s="10" t="str">
         <f t="shared" si="30"/>
@@ -13801,7 +13798,7 @@
       </c>
       <c r="C419" s="10"/>
       <c r="D419" s="10" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E419" s="10" t="str">
         <f t="shared" si="30"/>
@@ -13817,11 +13814,11 @@
         <v>841</v>
       </c>
       <c r="B420" s="10" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="C420" s="10"/>
       <c r="D420" s="10" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E420" s="10" t="str">
         <f t="shared" si="30"/>
@@ -13841,7 +13838,7 @@
       </c>
       <c r="C421" s="10"/>
       <c r="D421" s="10" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E421" s="10" t="str">
         <f t="shared" si="30"/>
@@ -13857,7 +13854,7 @@
         <v>841</v>
       </c>
       <c r="B422" s="10" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="C422" s="10"/>
       <c r="D422" s="10" t="s">
@@ -13880,10 +13877,10 @@
       <c r="C423" s="10"/>
       <c r="D423" s="10"/>
       <c r="E423" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F423" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -14017,7 +14014,7 @@
         <v>841</v>
       </c>
       <c r="B431" s="10" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C431" s="10"/>
       <c r="D431" s="10" t="s">
@@ -14097,7 +14094,7 @@
         <v>841</v>
       </c>
       <c r="B435" s="10" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="C435" s="10"/>
       <c r="D435" s="10" t="s">
@@ -14140,10 +14137,10 @@
       <c r="C437" s="10"/>
       <c r="D437" s="10"/>
       <c r="E437" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F437" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -14211,7 +14208,7 @@
       </c>
       <c r="C441" s="10"/>
       <c r="D441" s="10" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E441" s="10" t="str">
         <f t="shared" si="36"/>
@@ -14310,10 +14307,10 @@
       <c r="C446" s="10"/>
       <c r="D446" s="10"/>
       <c r="E446" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F446" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -14377,7 +14374,7 @@
         <v>841</v>
       </c>
       <c r="B450" s="10" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C450" s="10"/>
       <c r="D450" s="10" t="s">
@@ -14401,7 +14398,7 @@
       </c>
       <c r="C451" s="10"/>
       <c r="D451" s="10" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E451" s="10" t="str">
         <f t="shared" si="38"/>
@@ -14481,10 +14478,10 @@
       <c r="C455" s="10"/>
       <c r="D455" s="10"/>
       <c r="E455" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F455" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -14522,11 +14519,11 @@
         <v>1035</v>
       </c>
       <c r="B458" s="10" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="C458" s="10"/>
       <c r="D458" s="10" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E458" s="10" t="str">
         <f t="shared" si="40"/>
@@ -14661,10 +14658,10 @@
       <c r="C465" s="10"/>
       <c r="D465" s="10"/>
       <c r="E465" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F465" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -14732,7 +14729,7 @@
       </c>
       <c r="C469" s="10"/>
       <c r="D469" s="10" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E469" s="10" t="str">
         <f t="shared" si="44"/>
@@ -14952,7 +14949,7 @@
       </c>
       <c r="C480" s="10"/>
       <c r="D480" s="10" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E480" s="10" t="str">
         <f t="shared" si="44"/>
@@ -14992,7 +14989,7 @@
       </c>
       <c r="C482" s="10"/>
       <c r="D482" s="10" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E482" s="10" t="str">
         <f t="shared" si="44"/>
@@ -15052,7 +15049,7 @@
       </c>
       <c r="C485" s="10"/>
       <c r="D485" s="10" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E485" s="10" t="str">
         <f t="shared" si="44"/>
@@ -15108,11 +15105,11 @@
         <v>841</v>
       </c>
       <c r="B488" s="10" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C488" s="10"/>
       <c r="D488" s="10" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E488" s="10" t="str">
         <f t="shared" si="44"/>
@@ -15191,10 +15188,10 @@
       <c r="C492" s="10"/>
       <c r="D492" s="10"/>
       <c r="E492" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F492" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -15232,11 +15229,11 @@
         <v>1097</v>
       </c>
       <c r="B495" s="10" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C495" s="10"/>
       <c r="D495" s="10" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E495" s="10" t="str">
         <f t="shared" si="46"/>
@@ -15252,11 +15249,11 @@
         <v>1098</v>
       </c>
       <c r="B496" s="10" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C496" s="10"/>
       <c r="D496" s="10" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="E496" s="10" t="str">
         <f t="shared" si="46"/>
@@ -15272,11 +15269,11 @@
         <v>1099</v>
       </c>
       <c r="B497" s="10" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C497" s="10"/>
       <c r="D497" s="10" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E497" s="10" t="str">
         <f t="shared" si="46"/>
@@ -15292,13 +15289,13 @@
         <v>1100</v>
       </c>
       <c r="B498" s="10" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C498" s="10" t="s">
         <v>1644</v>
       </c>
-      <c r="C498" s="10" t="s">
+      <c r="D498" s="10" t="s">
         <v>1645</v>
-      </c>
-      <c r="D498" s="10" t="s">
-        <v>1646</v>
       </c>
       <c r="E498" s="10" t="str">
         <f t="shared" si="46"/>
@@ -15394,7 +15391,7 @@
       </c>
       <c r="C503" s="10"/>
       <c r="D503" s="10" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E503" s="10" t="str">
         <f t="shared" ref="E503:E505" si="48">IF(ISBLANK(C503),"","&lt;!-- "&amp;C503&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D503,"""","\""")&amp;"&lt;/item&gt;"</f>
@@ -15414,7 +15411,7 @@
       </c>
       <c r="C504" s="10"/>
       <c r="D504" s="10" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E504" s="10" t="str">
         <f t="shared" si="48"/>
@@ -15430,11 +15427,11 @@
         <v>841</v>
       </c>
       <c r="B505" s="10" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C505" s="10"/>
       <c r="D505" s="10" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E505" s="10" t="str">
         <f t="shared" si="48"/>
@@ -15453,10 +15450,10 @@
       <c r="C506" s="10"/>
       <c r="D506" s="10"/>
       <c r="E506" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F506" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -15584,7 +15581,7 @@
       </c>
       <c r="C513" s="10"/>
       <c r="D513" s="10" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E513" s="10" t="str">
         <f t="shared" si="50"/>
@@ -15640,7 +15637,7 @@
         <v>841</v>
       </c>
       <c r="B516" s="10" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C516" s="10"/>
       <c r="D516" s="10" t="s">
@@ -15764,7 +15761,7 @@
       </c>
       <c r="C522" s="10"/>
       <c r="D522" s="10" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E522" s="10" t="str">
         <f t="shared" si="50"/>
@@ -15824,7 +15821,7 @@
       </c>
       <c r="C525" s="10"/>
       <c r="D525" s="10" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E525" s="10" t="str">
         <f t="shared" si="50"/>
@@ -15860,7 +15857,7 @@
         <v>841</v>
       </c>
       <c r="B527" s="10" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C527" s="10"/>
       <c r="D527" s="10" t="s">
@@ -15883,10 +15880,10 @@
       <c r="C528" s="10"/>
       <c r="D528" s="10"/>
       <c r="E528" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F528" s="10" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -15984,7 +15981,7 @@
       </c>
       <c r="C534" s="10"/>
       <c r="D534" s="10" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E534" s="10" t="str">
         <f t="shared" si="52"/>
@@ -16003,10 +16000,10 @@
       <c r="C535" s="10"/>
       <c r="D535" s="10"/>
       <c r="E535" s="13" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F535" s="13" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
@@ -16034,7 +16031,7 @@
       </c>
       <c r="C537" s="10"/>
       <c r="D537" s="10" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E537" s="10" t="str">
         <f t="shared" ref="E537:E538" si="54">IF(ISBLANK(C537),"","&lt;!-- "&amp;C537&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D537,"""","\""")&amp;"&lt;/item&gt;"</f>
@@ -16054,7 +16051,7 @@
       </c>
       <c r="C538" s="10"/>
       <c r="D538" s="10" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E538" s="10" t="str">
         <f t="shared" si="54"/>
@@ -16073,10 +16070,10 @@
       <c r="C539" s="10"/>
       <c r="D539" s="10"/>
       <c r="E539" s="13" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F539" s="13" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
@@ -16107,11 +16104,11 @@
         <v>1160</v>
       </c>
       <c r="E541" s="10" t="str">
-        <f t="shared" ref="E541:E603" si="56">IF(ISBLANK(C541),"","&lt;!-- "&amp;C541&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D541,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="E541:E602" si="56">IF(ISBLANK(C541),"","&lt;!-- "&amp;C541&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D541,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;Otolaryngologist&lt;/item&gt;</v>
       </c>
       <c r="F541" s="10" t="str">
-        <f t="shared" ref="F541:F603" si="57">IF(ISBLANK(C541),"","&lt;!-- "&amp;C541&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(B541,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <f t="shared" ref="F541:F602" si="57">IF(ISBLANK(C541),"","&lt;!-- "&amp;C541&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(B541,"""","\""")&amp;"&lt;/item&gt;"</f>
         <v>&lt;item&gt;ЛОР&lt;/item&gt;</v>
       </c>
     </row>
@@ -16380,19 +16377,19 @@
         <v>841</v>
       </c>
       <c r="B555" s="10" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C555" s="10"/>
       <c r="D555" s="10" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E555" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Dentist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Immunologist&lt;/item&gt;</v>
       </c>
       <c r="F555" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Зубной врач&lt;/item&gt;</v>
+        <v>&lt;item&gt;Иммунолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
@@ -16400,19 +16397,19 @@
         <v>841</v>
       </c>
       <c r="B556" s="10" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C556" s="10"/>
       <c r="D556" s="10" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="E556" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Immunologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Infectiologist&lt;/item&gt;</v>
       </c>
       <c r="F556" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Иммунолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Инфекционист&lt;/item&gt;</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
@@ -16420,19 +16417,19 @@
         <v>841</v>
       </c>
       <c r="B557" s="10" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C557" s="10"/>
       <c r="D557" s="10" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E557" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Infectiologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Cardiologist&lt;/item&gt;</v>
       </c>
       <c r="F557" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Инфекционист&lt;/item&gt;</v>
+        <v>&lt;item&gt;Кардиолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
@@ -16440,19 +16437,19 @@
         <v>841</v>
       </c>
       <c r="B558" s="10" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C558" s="10"/>
       <c r="D558" s="10" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E558" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Cardiologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Cardiorheumatologist&lt;/item&gt;</v>
       </c>
       <c r="F558" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Кардиолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Кардиоревматолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
@@ -16460,19 +16457,19 @@
         <v>841</v>
       </c>
       <c r="B559" s="10" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C559" s="10"/>
       <c r="D559" s="10" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E559" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Cardiorheumatologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Cosmetologist&lt;/item&gt;</v>
       </c>
       <c r="F559" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Кардиоревматолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Косметолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
@@ -16480,19 +16477,19 @@
         <v>841</v>
       </c>
       <c r="B560" s="10" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C560" s="10"/>
       <c r="D560" s="10" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E560" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Cosmetologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Logopedist&lt;/item&gt;</v>
       </c>
       <c r="F560" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Косметолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Логопед&lt;/item&gt;</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
@@ -16500,19 +16497,19 @@
         <v>841</v>
       </c>
       <c r="B561" s="10" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C561" s="10"/>
       <c r="D561" s="10" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E561" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Logopedist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Mammologist&lt;/item&gt;</v>
       </c>
       <c r="F561" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Логопед&lt;/item&gt;</v>
+        <v>&lt;item&gt;Маммолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
@@ -16520,19 +16517,19 @@
         <v>841</v>
       </c>
       <c r="B562" s="10" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C562" s="10"/>
       <c r="D562" s="10" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E562" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Mammologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Massagist&lt;/item&gt;</v>
       </c>
       <c r="F562" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Маммолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Массажист&lt;/item&gt;</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
@@ -16540,19 +16537,19 @@
         <v>841</v>
       </c>
       <c r="B563" s="10" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C563" s="10"/>
       <c r="D563" s="10" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="E563" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Massagist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Micrologist&lt;/item&gt;</v>
       </c>
       <c r="F563" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Массажист&lt;/item&gt;</v>
+        <v>&lt;item&gt;Миколог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
@@ -16560,19 +16557,19 @@
         <v>841</v>
       </c>
       <c r="B564" s="10" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C564" s="10"/>
       <c r="D564" s="10" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="E564" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Micrologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Neurologist&lt;/item&gt;</v>
       </c>
       <c r="F564" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Миколог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Невролог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
@@ -16580,19 +16577,19 @@
         <v>841</v>
       </c>
       <c r="B565" s="10" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C565" s="10"/>
       <c r="D565" s="10" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="E565" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Neurologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Neuropathist&lt;/item&gt;</v>
       </c>
       <c r="F565" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Невролог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Невропатолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
@@ -16600,19 +16597,19 @@
         <v>841</v>
       </c>
       <c r="B566" s="10" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C566" s="10"/>
       <c r="D566" s="10" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E566" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Neuropathist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Neurosurgeon&lt;/item&gt;</v>
       </c>
       <c r="F566" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Невропатолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Нейрохирург&lt;/item&gt;</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
@@ -16620,19 +16617,19 @@
         <v>841</v>
       </c>
       <c r="B567" s="10" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C567" s="10"/>
       <c r="D567" s="10" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E567" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Neurosurgeon&lt;/item&gt;</v>
+        <v>&lt;item&gt;Nephrologist&lt;/item&gt;</v>
       </c>
       <c r="F567" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Нейрохирург&lt;/item&gt;</v>
+        <v>&lt;item&gt;Нефролог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
@@ -16640,19 +16637,19 @@
         <v>841</v>
       </c>
       <c r="B568" s="10" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C568" s="10"/>
       <c r="D568" s="10" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E568" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Nephrologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Oculist&lt;/item&gt;</v>
       </c>
       <c r="F568" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Нефролог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Окулист&lt;/item&gt;</v>
       </c>
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
@@ -16660,19 +16657,19 @@
         <v>841</v>
       </c>
       <c r="B569" s="10" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C569" s="10"/>
       <c r="D569" s="10" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="E569" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Oculist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Oncologist&lt;/item&gt;</v>
       </c>
       <c r="F569" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Окулист&lt;/item&gt;</v>
+        <v>&lt;item&gt;Онколог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
@@ -16680,19 +16677,19 @@
         <v>841</v>
       </c>
       <c r="B570" s="10" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C570" s="10"/>
       <c r="D570" s="10" t="s">
-        <v>1218</v>
+        <v>1626</v>
       </c>
       <c r="E570" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Oncologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Orthopedist/Traumatologist&lt;/item&gt;</v>
       </c>
       <c r="F570" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Онколог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Ортопед-травматолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
@@ -16704,15 +16701,15 @@
       </c>
       <c r="C571" s="10"/>
       <c r="D571" s="10" t="s">
-        <v>1627</v>
+        <v>1220</v>
       </c>
       <c r="E571" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Orthopedist/Traumatologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Orthopedist&lt;/item&gt;</v>
       </c>
       <c r="F571" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Ортопед-травматолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Ортопед&lt;/item&gt;</v>
       </c>
     </row>
     <row r="572" spans="1:6" x14ac:dyDescent="0.25">
@@ -16720,19 +16717,19 @@
         <v>841</v>
       </c>
       <c r="B572" s="10" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C572" s="10"/>
       <c r="D572" s="10" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E572" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Orthopedist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Osteopath&lt;/item&gt;</v>
       </c>
       <c r="F572" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Ортопед&lt;/item&gt;</v>
+        <v>&lt;item&gt;Остеопат&lt;/item&gt;</v>
       </c>
     </row>
     <row r="573" spans="1:6" x14ac:dyDescent="0.25">
@@ -16740,19 +16737,19 @@
         <v>841</v>
       </c>
       <c r="B573" s="10" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C573" s="10"/>
       <c r="D573" s="10" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E573" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Osteopath&lt;/item&gt;</v>
+        <v>&lt;item&gt;Ophthalmologist&lt;/item&gt;</v>
       </c>
       <c r="F573" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Остеопат&lt;/item&gt;</v>
+        <v>&lt;item&gt;Офтальмолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="574" spans="1:6" x14ac:dyDescent="0.25">
@@ -16760,19 +16757,19 @@
         <v>841</v>
       </c>
       <c r="B574" s="10" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C574" s="10"/>
       <c r="D574" s="10" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E574" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Ophthalmologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Parasitologist&lt;/item&gt;</v>
       </c>
       <c r="F574" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Офтальмолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Паразитолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="575" spans="1:6" x14ac:dyDescent="0.25">
@@ -16780,19 +16777,19 @@
         <v>841</v>
       </c>
       <c r="B575" s="10" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C575" s="10"/>
       <c r="D575" s="10" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E575" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Parasitologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Proctologist&lt;/item&gt;</v>
       </c>
       <c r="F575" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Паразитолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Проктолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="576" spans="1:6" x14ac:dyDescent="0.25">
@@ -16800,19 +16797,19 @@
         <v>841</v>
       </c>
       <c r="B576" s="10" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C576" s="10"/>
       <c r="D576" s="10" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E576" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Proctologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Psychiatrist&lt;/item&gt;</v>
       </c>
       <c r="F576" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Проктолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Психиатр&lt;/item&gt;</v>
       </c>
     </row>
     <row r="577" spans="1:6" x14ac:dyDescent="0.25">
@@ -16820,19 +16817,19 @@
         <v>841</v>
       </c>
       <c r="B577" s="10" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C577" s="10"/>
       <c r="D577" s="10" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="E577" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Psychiatrist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Psycologist&lt;/item&gt;</v>
       </c>
       <c r="F577" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Психиатр&lt;/item&gt;</v>
+        <v>&lt;item&gt;Психолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="578" spans="1:6" x14ac:dyDescent="0.25">
@@ -16840,19 +16837,19 @@
         <v>841</v>
       </c>
       <c r="B578" s="10" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C578" s="10"/>
       <c r="D578" s="10" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E578" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Psycologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Psychotherapist&lt;/item&gt;</v>
       </c>
       <c r="F578" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Психолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Психотерапевт&lt;/item&gt;</v>
       </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
@@ -16860,19 +16857,19 @@
         <v>841</v>
       </c>
       <c r="B579" s="10" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C579" s="10"/>
       <c r="D579" s="10" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="E579" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Psychotherapist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Pulmonologist&lt;/item&gt;</v>
       </c>
       <c r="F579" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Психотерапевт&lt;/item&gt;</v>
+        <v>&lt;item&gt;Пульмонолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
@@ -16880,19 +16877,19 @@
         <v>841</v>
       </c>
       <c r="B580" s="10" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C580" s="10"/>
       <c r="D580" s="10" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E580" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Pulmonologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Rheumatologist&lt;/item&gt;</v>
       </c>
       <c r="F580" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Пульмонолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Ревматолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
@@ -16900,19 +16897,19 @@
         <v>841</v>
       </c>
       <c r="B581" s="10" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C581" s="10"/>
       <c r="D581" s="10" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E581" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Rheumatologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Reflexologist&lt;/item&gt;</v>
       </c>
       <c r="F581" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Ревматолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Рефлексотерапевт&lt;/item&gt;</v>
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
@@ -16920,19 +16917,19 @@
         <v>841</v>
       </c>
       <c r="B582" s="10" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C582" s="10"/>
       <c r="D582" s="10" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E582" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Reflexologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Vascular surgeon&lt;/item&gt;</v>
       </c>
       <c r="F582" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Рефлексотерапевт&lt;/item&gt;</v>
+        <v>&lt;item&gt;Сосудистый хирург&lt;/item&gt;</v>
       </c>
     </row>
     <row r="583" spans="1:6" x14ac:dyDescent="0.25">
@@ -16940,19 +16937,19 @@
         <v>841</v>
       </c>
       <c r="B583" s="10" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C583" s="10"/>
       <c r="D583" s="10" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E583" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Vascular surgeon&lt;/item&gt;</v>
+        <v>&lt;item&gt;Surgeon dentist&lt;/item&gt;</v>
       </c>
       <c r="F583" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Сосудистый хирург&lt;/item&gt;</v>
+        <v>&lt;item&gt;Стоматолог-хирург&lt;/item&gt;</v>
       </c>
     </row>
     <row r="584" spans="1:6" x14ac:dyDescent="0.25">
@@ -16960,19 +16957,19 @@
         <v>841</v>
       </c>
       <c r="B584" s="10" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C584" s="10"/>
       <c r="D584" s="10" t="s">
-        <v>1245</v>
+        <v>1187</v>
       </c>
       <c r="E584" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Surgeon dentist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Dentist&lt;/item&gt;</v>
       </c>
       <c r="F584" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Стоматолог-хирург&lt;/item&gt;</v>
+        <v>&lt;item&gt;Стоматолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="585" spans="1:6" x14ac:dyDescent="0.25">
@@ -16984,15 +16981,15 @@
       </c>
       <c r="C585" s="10"/>
       <c r="D585" s="10" t="s">
-        <v>1188</v>
+        <v>1247</v>
       </c>
       <c r="E585" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Dentist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Surdologist&lt;/item&gt;</v>
       </c>
       <c r="F585" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Стоматолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Сурдолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
@@ -17000,19 +16997,19 @@
         <v>841</v>
       </c>
       <c r="B586" s="10" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C586" s="10"/>
       <c r="D586" s="10" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="E586" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Surdologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Traumatologist&lt;/item&gt;</v>
       </c>
       <c r="F586" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Сурдолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Травматолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="587" spans="1:6" x14ac:dyDescent="0.25">
@@ -17020,19 +17017,19 @@
         <v>841</v>
       </c>
       <c r="B587" s="10" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C587" s="10"/>
       <c r="D587" s="10" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="E587" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Traumatologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Urologist&lt;/item&gt;</v>
       </c>
       <c r="F587" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Травматолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Уролог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="588" spans="1:6" x14ac:dyDescent="0.25">
@@ -17040,19 +17037,19 @@
         <v>841</v>
       </c>
       <c r="B588" s="10" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C588" s="10"/>
       <c r="D588" s="10" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E588" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Urologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Physiatrist&lt;/item&gt;</v>
       </c>
       <c r="F588" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Уролог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Физиотерапевт&lt;/item&gt;</v>
       </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
@@ -17060,19 +17057,19 @@
         <v>841</v>
       </c>
       <c r="B589" s="10" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C589" s="10"/>
       <c r="D589" s="10" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="E589" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Physiatrist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Phlebologist&lt;/item&gt;</v>
       </c>
       <c r="F589" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Физиотерапевт&lt;/item&gt;</v>
+        <v>&lt;item&gt;Флеболог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="590" spans="1:6" x14ac:dyDescent="0.25">
@@ -17080,19 +17077,19 @@
         <v>841</v>
       </c>
       <c r="B590" s="10" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C590" s="10"/>
       <c r="D590" s="10" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="E590" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Phlebologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Phoniatrist&lt;/item&gt;</v>
       </c>
       <c r="F590" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Флеболог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Фониатр&lt;/item&gt;</v>
       </c>
     </row>
     <row r="591" spans="1:6" x14ac:dyDescent="0.25">
@@ -17100,19 +17097,19 @@
         <v>841</v>
       </c>
       <c r="B591" s="10" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C591" s="10"/>
       <c r="D591" s="10" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="E591" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Phoniatrist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Phthisiologist&lt;/item&gt;</v>
       </c>
       <c r="F591" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Фониатр&lt;/item&gt;</v>
+        <v>&lt;item&gt;Фтизиатр&lt;/item&gt;</v>
       </c>
     </row>
     <row r="592" spans="1:6" x14ac:dyDescent="0.25">
@@ -17120,19 +17117,19 @@
         <v>841</v>
       </c>
       <c r="B592" s="10" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C592" s="10"/>
       <c r="D592" s="10" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E592" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Phthisiologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Surgeon orthopedist&lt;/item&gt;</v>
       </c>
       <c r="F592" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Фтизиатр&lt;/item&gt;</v>
+        <v>&lt;item&gt;Хирург-ортопед&lt;/item&gt;</v>
       </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
@@ -17140,19 +17137,19 @@
         <v>841</v>
       </c>
       <c r="B593" s="10" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C593" s="10"/>
       <c r="D593" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="E593" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Surgeon orthopedist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Surgeon urologist&lt;/item&gt;</v>
       </c>
       <c r="F593" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Хирург-ортопед&lt;/item&gt;</v>
+        <v>&lt;item&gt;Хирург-уролог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
@@ -17160,19 +17157,19 @@
         <v>841</v>
       </c>
       <c r="B594" s="10" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C594" s="10"/>
       <c r="D594" s="10" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="E594" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Surgeon urologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Surgeon&lt;/item&gt;</v>
       </c>
       <c r="F594" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Хирург-уролог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Хирург&lt;/item&gt;</v>
       </c>
     </row>
     <row r="595" spans="1:6" x14ac:dyDescent="0.25">
@@ -17180,19 +17177,19 @@
         <v>841</v>
       </c>
       <c r="B595" s="10" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C595" s="10"/>
       <c r="D595" s="10" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E595" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Surgeon&lt;/item&gt;</v>
+        <v>&lt;item&gt;Endocrinologist&lt;/item&gt;</v>
       </c>
       <c r="F595" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Хирург&lt;/item&gt;</v>
+        <v>&lt;item&gt;Эндокринолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="596" spans="1:6" x14ac:dyDescent="0.25">
@@ -17200,19 +17197,19 @@
         <v>841</v>
       </c>
       <c r="B596" s="10" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C596" s="10"/>
       <c r="D596" s="10" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E596" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Endocrinologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Epileptologist&lt;/item&gt;</v>
       </c>
       <c r="F596" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Эндокринолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Эпилептолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="597" spans="1:6" x14ac:dyDescent="0.25">
@@ -17220,19 +17217,19 @@
         <v>841</v>
       </c>
       <c r="B597" s="10" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C597" s="10"/>
       <c r="D597" s="10" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="E597" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Epileptologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Neonatologist&lt;/item&gt;</v>
       </c>
       <c r="F597" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Эпилептолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Неонатолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="598" spans="1:6" x14ac:dyDescent="0.25">
@@ -17240,19 +17237,19 @@
         <v>841</v>
       </c>
       <c r="B598" s="10" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C598" s="10"/>
       <c r="D598" s="10" t="s">
-        <v>1272</v>
+        <v>1627</v>
       </c>
       <c r="E598" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Neonatologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Pediatritian/Neonatologist&lt;/item&gt;</v>
       </c>
       <c r="F598" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Неонатолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Педиатр-неонатолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="599" spans="1:6" x14ac:dyDescent="0.25">
@@ -17260,19 +17257,19 @@
         <v>841</v>
       </c>
       <c r="B599" s="10" t="s">
-        <v>1273</v>
+        <v>413</v>
       </c>
       <c r="C599" s="10"/>
       <c r="D599" s="10" t="s">
-        <v>1628</v>
+        <v>1273</v>
       </c>
       <c r="E599" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Pediatritian/Neonatologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Pediatritian&lt;/item&gt;</v>
       </c>
       <c r="F599" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Педиатр-неонатолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Педиатр&lt;/item&gt;</v>
       </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
@@ -17280,19 +17277,19 @@
         <v>841</v>
       </c>
       <c r="B600" s="10" t="s">
-        <v>413</v>
+        <v>1274</v>
       </c>
       <c r="C600" s="10"/>
       <c r="D600" s="10" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="E600" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Pediatritian&lt;/item&gt;</v>
+        <v>&lt;item&gt;Perinatologist&lt;/item&gt;</v>
       </c>
       <c r="F600" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Педиатр&lt;/item&gt;</v>
+        <v>&lt;item&gt;Перинатолог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
@@ -17300,19 +17297,19 @@
         <v>841</v>
       </c>
       <c r="B601" s="10" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C601" s="10"/>
       <c r="D601" s="10" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="E601" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Perinatologist&lt;/item&gt;</v>
+        <v>&lt;item&gt;Teacher of the deaf and hard of hearing&lt;/item&gt;</v>
       </c>
       <c r="F601" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Перинатолог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Сурдопедагог&lt;/item&gt;</v>
       </c>
     </row>
     <row r="602" spans="1:6" x14ac:dyDescent="0.25">
@@ -17320,69 +17317,69 @@
         <v>841</v>
       </c>
       <c r="B602" s="10" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C602" s="10"/>
       <c r="D602" s="10" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E602" s="10" t="str">
         <f t="shared" si="56"/>
-        <v>&lt;item&gt;Teacher of the deaf and hard of hearing&lt;/item&gt;</v>
+        <v>&lt;item&gt;Pediatrician phthisiologist&lt;/item&gt;</v>
       </c>
       <c r="F602" s="10" t="str">
         <f t="shared" si="57"/>
-        <v>&lt;item&gt;Сурдопедагог&lt;/item&gt;</v>
+        <v>&lt;item&gt;Фтизиопедиатр&lt;/item&gt;</v>
       </c>
     </row>
     <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="B603" s="10" t="s">
-        <v>1279</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B603" s="10"/>
       <c r="C603" s="10"/>
-      <c r="D603" s="10" t="s">
-        <v>1280</v>
-      </c>
-      <c r="E603" s="10" t="str">
-        <f t="shared" si="56"/>
-        <v>&lt;item&gt;Pediatrician phthisiologist&lt;/item&gt;</v>
-      </c>
-      <c r="F603" s="10" t="str">
-        <f t="shared" si="57"/>
-        <v>&lt;item&gt;Фтизиопедиатр&lt;/item&gt;</v>
+      <c r="D603" s="10"/>
+      <c r="E603" s="13" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F603" s="13" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B604" s="10"/>
       <c r="C604" s="10"/>
       <c r="D604" s="10"/>
-      <c r="E604" s="13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F604" s="13" t="s">
-        <v>1579</v>
+      <c r="E604" s="13" t="str">
+        <f>IF(ISBLANK(C604),"","&lt;!-- "&amp;C604&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A604&amp;"""&gt;"</f>
+        <v>&lt;string-array name="medicine"&gt;</v>
+      </c>
+      <c r="F604" s="13" t="str">
+        <f>IF(ISBLANK(C604),"","&lt;!-- "&amp;C604&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A604&amp;"""&gt;"</f>
+        <v>&lt;string-array name="medicine"&gt;</v>
       </c>
     </row>
     <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B605" s="10"/>
+        <v>841</v>
+      </c>
+      <c r="B605" s="10" t="s">
+        <v>1280</v>
+      </c>
       <c r="C605" s="10"/>
-      <c r="D605" s="10"/>
-      <c r="E605" s="13" t="str">
-        <f>IF(ISBLANK(C605),"","&lt;!-- "&amp;C605&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A605&amp;"""&gt;"</f>
-        <v>&lt;string-array name="medicine"&gt;</v>
-      </c>
-      <c r="F605" s="13" t="str">
-        <f>IF(ISBLANK(C605),"","&lt;!-- "&amp;C605&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A605&amp;"""&gt;"</f>
-        <v>&lt;string-array name="medicine"&gt;</v>
+      <c r="D605" s="10" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E605" s="10" t="str">
+        <f t="shared" ref="E605:E630" si="58">IF(ISBLANK(C605),"","&lt;!-- "&amp;C605&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D605,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Absorbent carbon&lt;/item&gt;</v>
+      </c>
+      <c r="F605" s="10" t="str">
+        <f t="shared" ref="F605:F630" si="59">IF(ISBLANK(C605),"","&lt;!-- "&amp;C605&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(B605,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Активированный уголь&lt;/item&gt;</v>
       </c>
     </row>
     <row r="606" spans="1:6" x14ac:dyDescent="0.25">
@@ -17390,19 +17387,19 @@
         <v>841</v>
       </c>
       <c r="B606" s="10" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C606" s="10"/>
       <c r="D606" s="10" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="E606" s="10" t="str">
-        <f t="shared" ref="E606:E631" si="58">IF(ISBLANK(C606),"","&lt;!-- "&amp;C606&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D606,"""","\""")&amp;"&lt;/item&gt;"</f>
-        <v>&lt;item&gt;Absorbent carbon&lt;/item&gt;</v>
+        <f t="shared" si="58"/>
+        <v>&lt;item&gt;Nurofen&lt;/item&gt;</v>
       </c>
       <c r="F606" s="10" t="str">
-        <f t="shared" ref="F606:F631" si="59">IF(ISBLANK(C606),"","&lt;!-- "&amp;C606&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(B606,"""","\""")&amp;"&lt;/item&gt;"</f>
-        <v>&lt;item&gt;Активированный уголь&lt;/item&gt;</v>
+        <f t="shared" si="59"/>
+        <v>&lt;item&gt;Нурофен&lt;/item&gt;</v>
       </c>
     </row>
     <row r="607" spans="1:6" x14ac:dyDescent="0.25">
@@ -17410,19 +17407,19 @@
         <v>841</v>
       </c>
       <c r="B607" s="10" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C607" s="10"/>
       <c r="D607" s="10" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="E607" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Nurofen&lt;/item&gt;</v>
+        <v>&lt;item&gt;Ibuprofen&lt;/item&gt;</v>
       </c>
       <c r="F607" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Нурофен&lt;/item&gt;</v>
+        <v>&lt;item&gt;Ибупрофен&lt;/item&gt;</v>
       </c>
     </row>
     <row r="608" spans="1:6" x14ac:dyDescent="0.25">
@@ -17430,19 +17427,19 @@
         <v>841</v>
       </c>
       <c r="B608" s="10" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C608" s="10"/>
       <c r="D608" s="10" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E608" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Ibuprofen&lt;/item&gt;</v>
+        <v>&lt;item&gt;Iodine&lt;/item&gt;</v>
       </c>
       <c r="F608" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Ибупрофен&lt;/item&gt;</v>
+        <v>&lt;item&gt;Йод&lt;/item&gt;</v>
       </c>
     </row>
     <row r="609" spans="1:6" x14ac:dyDescent="0.25">
@@ -17450,19 +17447,19 @@
         <v>841</v>
       </c>
       <c r="B609" s="10" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C609" s="10"/>
       <c r="D609" s="10" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="E609" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Iodine&lt;/item&gt;</v>
+        <v>&lt;item&gt;Smecta&lt;/item&gt;</v>
       </c>
       <c r="F609" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Йод&lt;/item&gt;</v>
+        <v>&lt;item&gt;Смекта&lt;/item&gt;</v>
       </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
@@ -17470,19 +17467,19 @@
         <v>841</v>
       </c>
       <c r="B610" s="10" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C610" s="10"/>
       <c r="D610" s="10" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E610" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Smecta&lt;/item&gt;</v>
+        <v>&lt;item&gt;Miramistin&lt;/item&gt;</v>
       </c>
       <c r="F610" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Смекта&lt;/item&gt;</v>
+        <v>&lt;item&gt;Мирамистин&lt;/item&gt;</v>
       </c>
     </row>
     <row r="611" spans="1:6" x14ac:dyDescent="0.25">
@@ -17490,19 +17487,19 @@
         <v>841</v>
       </c>
       <c r="B611" s="10" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C611" s="10"/>
       <c r="D611" s="10" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="E611" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Miramistin&lt;/item&gt;</v>
+        <v>&lt;item&gt;Albucid&lt;/item&gt;</v>
       </c>
       <c r="F611" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Мирамистин&lt;/item&gt;</v>
+        <v>&lt;item&gt;Альбуцид&lt;/item&gt;</v>
       </c>
     </row>
     <row r="612" spans="1:6" x14ac:dyDescent="0.25">
@@ -17510,19 +17507,19 @@
         <v>841</v>
       </c>
       <c r="B612" s="10" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C612" s="10"/>
       <c r="D612" s="10" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E612" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Albucid&lt;/item&gt;</v>
+        <v>&lt;item&gt;Furacilin&lt;/item&gt;</v>
       </c>
       <c r="F612" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Альбуцид&lt;/item&gt;</v>
+        <v>&lt;item&gt;Фурацилин (таблетки)&lt;/item&gt;</v>
       </c>
     </row>
     <row r="613" spans="1:6" x14ac:dyDescent="0.25">
@@ -17530,19 +17527,19 @@
         <v>841</v>
       </c>
       <c r="B613" s="10" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C613" s="10"/>
       <c r="D613" s="10" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="E613" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Furacilin&lt;/item&gt;</v>
+        <v>&lt;item&gt;Alcohol solution of furacilin&lt;/item&gt;</v>
       </c>
       <c r="F613" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Фурацилин (таблетки)&lt;/item&gt;</v>
+        <v>&lt;item&gt;Фурацилиновый спирт&lt;/item&gt;</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.25">
@@ -17550,19 +17547,19 @@
         <v>841</v>
       </c>
       <c r="B614" s="10" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C614" s="10"/>
       <c r="D614" s="10" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="E614" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Alcohol solution of furacilin&lt;/item&gt;</v>
+        <v>&lt;item&gt;Isofra&lt;/item&gt;</v>
       </c>
       <c r="F614" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Фурацилиновый спирт&lt;/item&gt;</v>
+        <v>&lt;item&gt;Изофра&lt;/item&gt;</v>
       </c>
     </row>
     <row r="615" spans="1:6" x14ac:dyDescent="0.25">
@@ -17570,19 +17567,19 @@
         <v>841</v>
       </c>
       <c r="B615" s="10" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C615" s="10"/>
       <c r="D615" s="10" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="E615" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Isofra&lt;/item&gt;</v>
+        <v>&lt;item&gt;Aqualor&lt;/item&gt;</v>
       </c>
       <c r="F615" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Изофра&lt;/item&gt;</v>
+        <v>&lt;item&gt;Аквалор&lt;/item&gt;</v>
       </c>
     </row>
     <row r="616" spans="1:6" x14ac:dyDescent="0.25">
@@ -17590,19 +17587,19 @@
         <v>841</v>
       </c>
       <c r="B616" s="10" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C616" s="10"/>
       <c r="D616" s="10" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="E616" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Aqualor&lt;/item&gt;</v>
+        <v>&lt;item&gt;Flemoclav&lt;/item&gt;</v>
       </c>
       <c r="F616" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Аквалор&lt;/item&gt;</v>
+        <v>&lt;item&gt;Флемоклав&lt;/item&gt;</v>
       </c>
     </row>
     <row r="617" spans="1:6" x14ac:dyDescent="0.25">
@@ -17610,19 +17607,19 @@
         <v>841</v>
       </c>
       <c r="B617" s="10" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C617" s="10"/>
       <c r="D617" s="10" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="E617" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Flemoclav&lt;/item&gt;</v>
+        <v>&lt;item&gt;Co-amoxiclav&lt;/item&gt;</v>
       </c>
       <c r="F617" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Флемоклав&lt;/item&gt;</v>
+        <v>&lt;item&gt;Амоксиклав&lt;/item&gt;</v>
       </c>
     </row>
     <row r="618" spans="1:6" x14ac:dyDescent="0.25">
@@ -17630,19 +17627,19 @@
         <v>841</v>
       </c>
       <c r="B618" s="10" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C618" s="10"/>
       <c r="D618" s="10" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E618" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Co-amoxiclav&lt;/item&gt;</v>
+        <v>&lt;item&gt;Riboxin&lt;/item&gt;</v>
       </c>
       <c r="F618" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Амоксиклав&lt;/item&gt;</v>
+        <v>&lt;item&gt;Рибоксин&lt;/item&gt;</v>
       </c>
     </row>
     <row r="619" spans="1:6" x14ac:dyDescent="0.25">
@@ -17650,19 +17647,19 @@
         <v>841</v>
       </c>
       <c r="B619" s="10" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C619" s="10"/>
       <c r="D619" s="10" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="E619" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Riboxin&lt;/item&gt;</v>
+        <v>&lt;item&gt;Vetoron&lt;/item&gt;</v>
       </c>
       <c r="F619" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Рибоксин&lt;/item&gt;</v>
+        <v>&lt;item&gt;Веторон&lt;/item&gt;</v>
       </c>
     </row>
     <row r="620" spans="1:6" x14ac:dyDescent="0.25">
@@ -17670,19 +17667,19 @@
         <v>841</v>
       </c>
       <c r="B620" s="10" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C620" s="10"/>
       <c r="D620" s="10" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="E620" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Vetoron&lt;/item&gt;</v>
+        <v>&lt;item&gt;Almagel&lt;/item&gt;</v>
       </c>
       <c r="F620" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Веторон&lt;/item&gt;</v>
+        <v>&lt;item&gt;Алмагель&lt;/item&gt;</v>
       </c>
     </row>
     <row r="621" spans="1:6" x14ac:dyDescent="0.25">
@@ -17690,19 +17687,19 @@
         <v>841</v>
       </c>
       <c r="B621" s="10" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C621" s="10"/>
       <c r="D621" s="10" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="E621" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Almagel&lt;/item&gt;</v>
+        <v>&lt;item&gt;Creon&lt;/item&gt;</v>
       </c>
       <c r="F621" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Алмагель&lt;/item&gt;</v>
+        <v>&lt;item&gt;Креон&lt;/item&gt;</v>
       </c>
     </row>
     <row r="622" spans="1:6" x14ac:dyDescent="0.25">
@@ -17710,19 +17707,19 @@
         <v>841</v>
       </c>
       <c r="B622" s="10" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C622" s="10"/>
       <c r="D622" s="10" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="E622" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Creon&lt;/item&gt;</v>
+        <v>&lt;item&gt;Vibrocil&lt;/item&gt;</v>
       </c>
       <c r="F622" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Креон&lt;/item&gt;</v>
+        <v>&lt;item&gt;Виброцил&lt;/item&gt;</v>
       </c>
     </row>
     <row r="623" spans="1:6" x14ac:dyDescent="0.25">
@@ -17730,19 +17727,19 @@
         <v>841</v>
       </c>
       <c r="B623" s="10" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="C623" s="10"/>
       <c r="D623" s="10" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="E623" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Vibrocil&lt;/item&gt;</v>
+        <v>&lt;item&gt;Nasivin&lt;/item&gt;</v>
       </c>
       <c r="F623" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Виброцил&lt;/item&gt;</v>
+        <v>&lt;item&gt;Називин&lt;/item&gt;</v>
       </c>
     </row>
     <row r="624" spans="1:6" x14ac:dyDescent="0.25">
@@ -17750,19 +17747,19 @@
         <v>841</v>
       </c>
       <c r="B624" s="10" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C624" s="10"/>
       <c r="D624" s="10" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="E624" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Nasivin&lt;/item&gt;</v>
+        <v>&lt;item&gt;Naftisin&lt;/item&gt;</v>
       </c>
       <c r="F624" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Називин&lt;/item&gt;</v>
+        <v>&lt;item&gt;Нафтизин&lt;/item&gt;</v>
       </c>
     </row>
     <row r="625" spans="1:6" x14ac:dyDescent="0.25">
@@ -17770,19 +17767,19 @@
         <v>841</v>
       </c>
       <c r="B625" s="10" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C625" s="10"/>
       <c r="D625" s="10" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E625" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Naftisin&lt;/item&gt;</v>
+        <v>&lt;item&gt;Suprastin&lt;/item&gt;</v>
       </c>
       <c r="F625" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Нафтизин&lt;/item&gt;</v>
+        <v>&lt;item&gt;Супрастин&lt;/item&gt;</v>
       </c>
     </row>
     <row r="626" spans="1:6" x14ac:dyDescent="0.25">
@@ -17790,19 +17787,19 @@
         <v>841</v>
       </c>
       <c r="B626" s="10" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C626" s="10"/>
       <c r="D626" s="10" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="E626" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Suprastin&lt;/item&gt;</v>
+        <v>&lt;item&gt;Fenistil (gel)&lt;/item&gt;</v>
       </c>
       <c r="F626" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Супрастин&lt;/item&gt;</v>
+        <v>&lt;item&gt;Фенистил (гель)&lt;/item&gt;</v>
       </c>
     </row>
     <row r="627" spans="1:6" x14ac:dyDescent="0.25">
@@ -17810,19 +17807,19 @@
         <v>841</v>
       </c>
       <c r="B627" s="10" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C627" s="10"/>
       <c r="D627" s="10" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="E627" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Fenistil (gel)&lt;/item&gt;</v>
+        <v>&lt;item&gt;Viferon (suppositories)&lt;/item&gt;</v>
       </c>
       <c r="F627" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Фенистил (гель)&lt;/item&gt;</v>
+        <v>&lt;item&gt;Виферон (свечи)&lt;/item&gt;</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.25">
@@ -17830,19 +17827,19 @@
         <v>841</v>
       </c>
       <c r="B628" s="10" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C628" s="10"/>
       <c r="D628" s="10" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="E628" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Viferon (suppositories)&lt;/item&gt;</v>
+        <v>&lt;item&gt;Paracetamol&lt;/item&gt;</v>
       </c>
       <c r="F628" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Виферон (свечи)&lt;/item&gt;</v>
+        <v>&lt;item&gt;Парацетамол&lt;/item&gt;</v>
       </c>
     </row>
     <row r="629" spans="1:6" x14ac:dyDescent="0.25">
@@ -17850,19 +17847,19 @@
         <v>841</v>
       </c>
       <c r="B629" s="10" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C629" s="10"/>
       <c r="D629" s="10" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E629" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Paracetamol&lt;/item&gt;</v>
+        <v>&lt;item&gt;Espumisan&lt;/item&gt;</v>
       </c>
       <c r="F629" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Парацетамол&lt;/item&gt;</v>
+        <v>&lt;item&gt;Эспумизан&lt;/item&gt;</v>
       </c>
     </row>
     <row r="630" spans="1:6" x14ac:dyDescent="0.25">
@@ -17870,69 +17867,69 @@
         <v>841</v>
       </c>
       <c r="B630" s="10" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C630" s="10"/>
       <c r="D630" s="10" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="E630" s="10" t="str">
         <f t="shared" si="58"/>
-        <v>&lt;item&gt;Espumisan&lt;/item&gt;</v>
+        <v>&lt;item&gt;Linex&lt;/item&gt;</v>
       </c>
       <c r="F630" s="10" t="str">
         <f t="shared" si="59"/>
-        <v>&lt;item&gt;Эспумизан&lt;/item&gt;</v>
+        <v>&lt;item&gt;Линекс&lt;/item&gt;</v>
       </c>
     </row>
     <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="B631" s="10" t="s">
-        <v>1331</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="B631" s="10"/>
       <c r="C631" s="10"/>
-      <c r="D631" s="10" t="s">
-        <v>1332</v>
-      </c>
-      <c r="E631" s="10" t="str">
-        <f t="shared" si="58"/>
-        <v>&lt;item&gt;Linex&lt;/item&gt;</v>
-      </c>
-      <c r="F631" s="10" t="str">
-        <f t="shared" si="59"/>
-        <v>&lt;item&gt;Линекс&lt;/item&gt;</v>
-      </c>
-    </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D631" s="10"/>
+      <c r="E631" s="13" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F631" s="13" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A632" s="9" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="B632" s="10"/>
       <c r="C632" s="10"/>
       <c r="D632" s="10"/>
-      <c r="E632" s="13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F632" s="13" t="s">
-        <v>1579</v>
-      </c>
-    </row>
-    <row r="633" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E632" s="13" t="str">
+        <f>IF(ISBLANK(C632),"","&lt;!-- "&amp;C632&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A632&amp;"""&gt;"</f>
+        <v>&lt;string-array name="medicine_measure"&gt;</v>
+      </c>
+      <c r="F632" s="13" t="str">
+        <f>IF(ISBLANK(C632),"","&lt;!-- "&amp;C632&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A632&amp;"""&gt;"</f>
+        <v>&lt;string-array name="medicine_measure"&gt;</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="B633" s="10"/>
+        <v>841</v>
+      </c>
+      <c r="B633" s="10" t="s">
+        <v>1332</v>
+      </c>
       <c r="C633" s="10"/>
-      <c r="D633" s="10"/>
-      <c r="E633" s="13" t="str">
-        <f>IF(ISBLANK(C633),"","&lt;!-- "&amp;C633&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A633&amp;"""&gt;"</f>
-        <v>&lt;string-array name="medicine_measure"&gt;</v>
-      </c>
-      <c r="F633" s="13" t="str">
-        <f>IF(ISBLANK(C633),"","&lt;!-- "&amp;C633&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A633&amp;"""&gt;"</f>
-        <v>&lt;string-array name="medicine_measure"&gt;</v>
+      <c r="D633" s="10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E633" s="10" t="str">
+        <f t="shared" ref="E633:E641" si="60">IF(ISBLANK(C633),"","&lt;!-- "&amp;C633&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D633,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;mg&lt;/item&gt;</v>
+      </c>
+      <c r="F633" s="10" t="str">
+        <f t="shared" ref="F633:F641" si="61">IF(ISBLANK(C633),"","&lt;!-- "&amp;C633&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(B633,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;мг&lt;/item&gt;</v>
       </c>
     </row>
     <row r="634" spans="1:6" x14ac:dyDescent="0.25">
@@ -17940,19 +17937,19 @@
         <v>841</v>
       </c>
       <c r="B634" s="10" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C634" s="10"/>
       <c r="D634" s="10" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E634" s="10" t="str">
-        <f t="shared" ref="E634:E642" si="60">IF(ISBLANK(C634),"","&lt;!-- "&amp;C634&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D634,"""","\""")&amp;"&lt;/item&gt;"</f>
-        <v>&lt;item&gt;mg&lt;/item&gt;</v>
+        <f t="shared" si="60"/>
+        <v>&lt;item&gt;ml&lt;/item&gt;</v>
       </c>
       <c r="F634" s="10" t="str">
-        <f t="shared" ref="F634:F642" si="61">IF(ISBLANK(C634),"","&lt;!-- "&amp;C634&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(B634,"""","\""")&amp;"&lt;/item&gt;"</f>
-        <v>&lt;item&gt;мг&lt;/item&gt;</v>
+        <f t="shared" si="61"/>
+        <v>&lt;item&gt;мл&lt;/item&gt;</v>
       </c>
     </row>
     <row r="635" spans="1:6" x14ac:dyDescent="0.25">
@@ -17960,19 +17957,19 @@
         <v>841</v>
       </c>
       <c r="B635" s="10" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C635" s="10"/>
       <c r="D635" s="10" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="E635" s="10" t="str">
         <f t="shared" si="60"/>
-        <v>&lt;item&gt;ml&lt;/item&gt;</v>
+        <v>&lt;item&gt;pce/pcs&lt;/item&gt;</v>
       </c>
       <c r="F635" s="10" t="str">
         <f t="shared" si="61"/>
-        <v>&lt;item&gt;мл&lt;/item&gt;</v>
+        <v>&lt;item&gt;шт.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.25">
@@ -17980,19 +17977,19 @@
         <v>841</v>
       </c>
       <c r="B636" s="10" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="C636" s="10"/>
       <c r="D636" s="10" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E636" s="10" t="str">
         <f t="shared" si="60"/>
-        <v>&lt;item&gt;pce/pcs&lt;/item&gt;</v>
+        <v>&lt;item&gt;ea&lt;/item&gt;</v>
       </c>
       <c r="F636" s="10" t="str">
         <f t="shared" si="61"/>
-        <v>&lt;item&gt;шт.&lt;/item&gt;</v>
+        <v>&lt;item&gt;ед.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
@@ -18000,19 +17997,19 @@
         <v>841</v>
       </c>
       <c r="B637" s="10" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C637" s="10"/>
       <c r="D637" s="10" t="s">
-        <v>1340</v>
+        <v>1438</v>
       </c>
       <c r="E637" s="10" t="str">
         <f t="shared" si="60"/>
-        <v>&lt;item&gt;ea&lt;/item&gt;</v>
+        <v>&lt;item&gt;measuring spoon&lt;/item&gt;</v>
       </c>
       <c r="F637" s="10" t="str">
         <f t="shared" si="61"/>
-        <v>&lt;item&gt;ед.&lt;/item&gt;</v>
+        <v>&lt;item&gt;мерн. лож.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.25">
@@ -18024,15 +18021,15 @@
       </c>
       <c r="C638" s="10"/>
       <c r="D638" s="10" t="s">
-        <v>1439</v>
+        <v>1342</v>
       </c>
       <c r="E638" s="10" t="str">
         <f t="shared" si="60"/>
-        <v>&lt;item&gt;measuring spoon&lt;/item&gt;</v>
+        <v>&lt;item&gt;tsp&lt;/item&gt;</v>
       </c>
       <c r="F638" s="10" t="str">
         <f t="shared" si="61"/>
-        <v>&lt;item&gt;мерн. лож.&lt;/item&gt;</v>
+        <v>&lt;item&gt;ч. лож.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="639" spans="1:6" x14ac:dyDescent="0.25">
@@ -18040,19 +18037,19 @@
         <v>841</v>
       </c>
       <c r="B639" s="10" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C639" s="10"/>
       <c r="D639" s="10" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="E639" s="10" t="str">
         <f t="shared" si="60"/>
-        <v>&lt;item&gt;tsp&lt;/item&gt;</v>
+        <v>&lt;item&gt;tbsp&lt;/item&gt;</v>
       </c>
       <c r="F639" s="10" t="str">
         <f t="shared" si="61"/>
-        <v>&lt;item&gt;ч. лож.&lt;/item&gt;</v>
+        <v>&lt;item&gt;ст. лож.&lt;/item&gt;</v>
       </c>
     </row>
     <row r="640" spans="1:6" x14ac:dyDescent="0.25">
@@ -18060,19 +18057,19 @@
         <v>841</v>
       </c>
       <c r="B640" s="10" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C640" s="10"/>
       <c r="D640" s="10" t="s">
-        <v>1345</v>
+        <v>1530</v>
       </c>
       <c r="E640" s="10" t="str">
         <f t="shared" si="60"/>
-        <v>&lt;item&gt;tbsp&lt;/item&gt;</v>
+        <v>&lt;item&gt;cm3&lt;/item&gt;</v>
       </c>
       <c r="F640" s="10" t="str">
         <f t="shared" si="61"/>
-        <v>&lt;item&gt;ст. лож.&lt;/item&gt;</v>
+        <v>&lt;item&gt;куб. см&lt;/item&gt;</v>
       </c>
     </row>
     <row r="641" spans="1:6" x14ac:dyDescent="0.25">
@@ -18084,65 +18081,65 @@
       </c>
       <c r="C641" s="10"/>
       <c r="D641" s="10" t="s">
-        <v>1531</v>
+        <v>1347</v>
       </c>
       <c r="E641" s="10" t="str">
         <f t="shared" si="60"/>
-        <v>&lt;item&gt;cm3&lt;/item&gt;</v>
+        <v>&lt;item&gt;shot&lt;/item&gt;</v>
       </c>
       <c r="F641" s="10" t="str">
         <f t="shared" si="61"/>
-        <v>&lt;item&gt;куб. см&lt;/item&gt;</v>
-      </c>
-    </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;item&gt;впрыск&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A642" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="B642" s="10" t="s">
-        <v>1347</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B642" s="10"/>
       <c r="C642" s="10"/>
-      <c r="D642" s="10" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E642" s="10" t="str">
-        <f t="shared" si="60"/>
-        <v>&lt;item&gt;shot&lt;/item&gt;</v>
-      </c>
-      <c r="F642" s="10" t="str">
-        <f t="shared" si="61"/>
-        <v>&lt;item&gt;впрыск&lt;/item&gt;</v>
-      </c>
-    </row>
-    <row r="643" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="D642" s="10"/>
+      <c r="E642" s="13" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F642" s="13" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="9" t="s">
-        <v>338</v>
+        <v>750</v>
       </c>
       <c r="B643" s="10"/>
       <c r="C643" s="10"/>
       <c r="D643" s="10"/>
-      <c r="E643" s="13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F643" s="13" t="s">
-        <v>1579</v>
+      <c r="E643" s="13" t="str">
+        <f>IF(ISBLANK(C643),"","&lt;!-- "&amp;C643&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A643&amp;"""&gt;"</f>
+        <v>&lt;string-array name="achievement"&gt;</v>
+      </c>
+      <c r="F643" s="13" t="str">
+        <f>IF(ISBLANK(C643),"","&lt;!-- "&amp;C643&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A643&amp;"""&gt;"</f>
+        <v>&lt;string-array name="achievement"&gt;</v>
       </c>
     </row>
     <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="B644" s="10"/>
+        <v>841</v>
+      </c>
+      <c r="B644" s="10" t="s">
+        <v>1349</v>
+      </c>
       <c r="C644" s="10"/>
-      <c r="D644" s="10"/>
-      <c r="E644" s="13" t="str">
-        <f>IF(ISBLANK(C644),"","&lt;!-- "&amp;C644&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A644&amp;"""&gt;"</f>
-        <v>&lt;string-array name="achievement"&gt;</v>
-      </c>
-      <c r="F644" s="13" t="str">
-        <f>IF(ISBLANK(C644),"","&lt;!-- "&amp;C644&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;string-array name="""&amp;A644&amp;"""&gt;"</f>
-        <v>&lt;string-array name="achievement"&gt;</v>
+      <c r="D644" s="10" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E644" s="10" t="str">
+        <f t="shared" ref="E644:E688" si="62">IF(ISBLANK(C644),"","&lt;!-- "&amp;C644&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D644,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Babbles&lt;/item&gt;</v>
+      </c>
+      <c r="F644" s="10" t="str">
+        <f t="shared" ref="F644:F688" si="63">IF(ISBLANK(C644),"","&lt;!-- "&amp;C644&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(B644,"""","\""")&amp;"&lt;/item&gt;"</f>
+        <v>&lt;item&gt;Гулит&lt;/item&gt;</v>
       </c>
     </row>
     <row r="645" spans="1:6" x14ac:dyDescent="0.25">
@@ -18150,19 +18147,19 @@
         <v>841</v>
       </c>
       <c r="B645" s="10" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C645" s="10"/>
       <c r="D645" s="10" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="E645" s="10" t="str">
-        <f t="shared" ref="E645:E689" si="62">IF(ISBLANK(C645),"","&lt;!-- "&amp;C645&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(D645,"""","\""")&amp;"&lt;/item&gt;"</f>
-        <v>&lt;item&gt;Babbles&lt;/item&gt;</v>
+        <f t="shared" si="62"/>
+        <v>&lt;item&gt;Examines their hand&lt;/item&gt;</v>
       </c>
       <c r="F645" s="10" t="str">
-        <f t="shared" ref="F645:F689" si="63">IF(ISBLANK(C645),"","&lt;!-- "&amp;C645&amp;" --&gt;"&amp;"NEWLINE")&amp;"&lt;item&gt;"&amp;SUBSTITUTE(B645,"""","\""")&amp;"&lt;/item&gt;"</f>
-        <v>&lt;item&gt;Гулит&lt;/item&gt;</v>
+        <f t="shared" si="63"/>
+        <v>&lt;item&gt;Рассматривает свою руку&lt;/item&gt;</v>
       </c>
     </row>
     <row r="646" spans="1:6" x14ac:dyDescent="0.25">
@@ -18170,19 +18167,19 @@
         <v>841</v>
       </c>
       <c r="B646" s="10" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C646" s="10"/>
       <c r="D646" s="10" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="E646" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Examines their hand&lt;/item&gt;</v>
+        <v>&lt;item&gt;Sits with their head straight&lt;/item&gt;</v>
       </c>
       <c r="F646" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Рассматривает свою руку&lt;/item&gt;</v>
+        <v>&lt;item&gt;Сидит, держа голову прямо&lt;/item&gt;</v>
       </c>
     </row>
     <row r="647" spans="1:6" x14ac:dyDescent="0.25">
@@ -18190,19 +18187,19 @@
         <v>841</v>
       </c>
       <c r="B647" s="10" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="C647" s="10"/>
       <c r="D647" s="10" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="E647" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Sits with their head straight&lt;/item&gt;</v>
+        <v>&lt;item&gt;Laughs&lt;/item&gt;</v>
       </c>
       <c r="F647" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Сидит, держа голову прямо&lt;/item&gt;</v>
+        <v>&lt;item&gt;Смеется&lt;/item&gt;</v>
       </c>
     </row>
     <row r="648" spans="1:6" x14ac:dyDescent="0.25">
@@ -18210,19 +18207,19 @@
         <v>841</v>
       </c>
       <c r="B648" s="10" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C648" s="10"/>
       <c r="D648" s="10" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="E648" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Laughs&lt;/item&gt;</v>
+        <v>&lt;item&gt;Turns over&lt;/item&gt;</v>
       </c>
       <c r="F648" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Смеется&lt;/item&gt;</v>
+        <v>&lt;item&gt;Переворачивается&lt;/item&gt;</v>
       </c>
     </row>
     <row r="649" spans="1:6" x14ac:dyDescent="0.25">
@@ -18230,19 +18227,19 @@
         <v>841</v>
       </c>
       <c r="B649" s="10" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="C649" s="10"/>
       <c r="D649" s="10" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="E649" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Turns over&lt;/item&gt;</v>
+        <v>&lt;item&gt;Turns around themselves&lt;/item&gt;</v>
       </c>
       <c r="F649" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Переворачивается&lt;/item&gt;</v>
+        <v>&lt;item&gt;Поворачивается вокруг себя&lt;/item&gt;</v>
       </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
@@ -18250,19 +18247,19 @@
         <v>841</v>
       </c>
       <c r="B650" s="10" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="C650" s="10"/>
       <c r="D650" s="10" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E650" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Turns around themselves&lt;/item&gt;</v>
+        <v>&lt;item&gt;Lifts themselves leaning on arms&lt;/item&gt;</v>
       </c>
       <c r="F650" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Поворачивается вокруг себя&lt;/item&gt;</v>
+        <v>&lt;item&gt;Приподнимается, опираясь на руки&lt;/item&gt;</v>
       </c>
     </row>
     <row r="651" spans="1:6" x14ac:dyDescent="0.25">
@@ -18270,19 +18267,19 @@
         <v>841</v>
       </c>
       <c r="B651" s="10" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C651" s="10"/>
       <c r="D651" s="10" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="E651" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Lifts themselves leaning on arms&lt;/item&gt;</v>
+        <v>&lt;item&gt;Grabs a rattle&lt;/item&gt;</v>
       </c>
       <c r="F651" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Приподнимается, опираясь на руки&lt;/item&gt;</v>
+        <v>&lt;item&gt;Хватает погремушку&lt;/item&gt;</v>
       </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
@@ -18290,19 +18287,19 @@
         <v>841</v>
       </c>
       <c r="B652" s="10" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C652" s="10"/>
       <c r="D652" s="10" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="E652" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Grabs a rattle&lt;/item&gt;</v>
+        <v>&lt;item&gt;Turns when they hear a sound&lt;/item&gt;</v>
       </c>
       <c r="F652" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Хватает погремушку&lt;/item&gt;</v>
+        <v>&lt;item&gt;Поворачивается на звук&lt;/item&gt;</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.25">
@@ -18310,19 +18307,19 @@
         <v>841</v>
       </c>
       <c r="B653" s="10" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="C653" s="10"/>
       <c r="D653" s="10" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="E653" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Turns when they hear a sound&lt;/item&gt;</v>
+        <v>&lt;item&gt;Turns when they hear a voice&lt;/item&gt;</v>
       </c>
       <c r="F653" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Поворачивается на звук&lt;/item&gt;</v>
+        <v>&lt;item&gt;Поворачивается на голос&lt;/item&gt;</v>
       </c>
     </row>
     <row r="654" spans="1:6" x14ac:dyDescent="0.25">
@@ -18330,19 +18327,19 @@
         <v>841</v>
       </c>
       <c r="B654" s="10" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="C654" s="10"/>
       <c r="D654" s="10" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="E654" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Turns when they hear a voice&lt;/item&gt;</v>
+        <v>&lt;item&gt;Eats on their own&lt;/item&gt;</v>
       </c>
       <c r="F654" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Поворачивается на голос&lt;/item&gt;</v>
+        <v>&lt;item&gt;Самостоятельно кушает&lt;/item&gt;</v>
       </c>
     </row>
     <row r="655" spans="1:6" x14ac:dyDescent="0.25">
@@ -18350,19 +18347,19 @@
         <v>841</v>
       </c>
       <c r="B655" s="10" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C655" s="10"/>
       <c r="D655" s="10" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="E655" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Eats on their own&lt;/item&gt;</v>
+        <v>&lt;item&gt;Sits without support&lt;/item&gt;</v>
       </c>
       <c r="F655" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Самостоятельно кушает&lt;/item&gt;</v>
+        <v>&lt;item&gt;Сидит без поддержки&lt;/item&gt;</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.25">
@@ -18370,19 +18367,19 @@
         <v>841</v>
       </c>
       <c r="B656" s="10" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="C656" s="10"/>
       <c r="D656" s="10" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="E656" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Sits without support&lt;/item&gt;</v>
+        <v>&lt;item&gt;Pronounces separate syllables&lt;/item&gt;</v>
       </c>
       <c r="F656" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Сидит без поддержки&lt;/item&gt;</v>
+        <v>&lt;item&gt;Произносит отдельные слоги&lt;/item&gt;</v>
       </c>
     </row>
     <row r="657" spans="1:6" x14ac:dyDescent="0.25">
@@ -18390,19 +18387,19 @@
         <v>841</v>
       </c>
       <c r="B657" s="10" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C657" s="10"/>
       <c r="D657" s="10" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="E657" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Pronounces separate syllables&lt;/item&gt;</v>
+        <v>&lt;item&gt;Piles up raisins&lt;/item&gt;</v>
       </c>
       <c r="F657" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Произносит отдельные слоги&lt;/item&gt;</v>
+        <v>&lt;item&gt;Собирает изюм в кучку&lt;/item&gt;</v>
       </c>
     </row>
     <row r="658" spans="1:6" x14ac:dyDescent="0.25">
@@ -18410,19 +18407,19 @@
         <v>841</v>
       </c>
       <c r="B658" s="10" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C658" s="10"/>
       <c r="D658" s="10" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="E658" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Piles up raisins&lt;/item&gt;</v>
+        <v>&lt;item&gt;Plays with blocks&lt;/item&gt;</v>
       </c>
       <c r="F658" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Собирает изюм в кучку&lt;/item&gt;</v>
+        <v>&lt;item&gt;Складывает Кубики&lt;/item&gt;</v>
       </c>
     </row>
     <row r="659" spans="1:6" x14ac:dyDescent="0.25">
@@ -18430,19 +18427,19 @@
         <v>841</v>
       </c>
       <c r="B659" s="10" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C659" s="10"/>
       <c r="D659" s="10" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="E659" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Plays with blocks&lt;/item&gt;</v>
+        <v>&lt;item&gt;Imitates speech&lt;/item&gt;</v>
       </c>
       <c r="F659" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Складывает Кубики&lt;/item&gt;</v>
+        <v>&lt;item&gt;Имитирует звуки речи&lt;/item&gt;</v>
       </c>
     </row>
     <row r="660" spans="1:6" x14ac:dyDescent="0.25">
@@ -18450,19 +18447,19 @@
         <v>841</v>
       </c>
       <c r="B660" s="10" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="C660" s="10"/>
       <c r="D660" s="10" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="E660" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Imitates speech&lt;/item&gt;</v>
+        <v>&lt;item&gt;Hold out their hand&lt;/item&gt;</v>
       </c>
       <c r="F660" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Имитирует звуки речи&lt;/item&gt;</v>
+        <v>&lt;item&gt;Протягивает руку&lt;/item&gt;</v>
       </c>
     </row>
     <row r="661" spans="1:6" x14ac:dyDescent="0.25">
@@ -18470,19 +18467,19 @@
         <v>841</v>
       </c>
       <c r="B661" s="10" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C661" s="10"/>
       <c r="D661" s="10" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="E661" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Hold out their hand&lt;/item&gt;</v>
+        <v>&lt;item&gt;Grabs a thread&lt;/item&gt;</v>
       </c>
       <c r="F661" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Протягивает руку&lt;/item&gt;</v>
+        <v>&lt;item&gt;Хватает нитку&lt;/item&gt;</v>
       </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
@@ -18490,19 +18487,19 @@
         <v>841</v>
       </c>
       <c r="B662" s="10" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="C662" s="10"/>
       <c r="D662" s="10" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="E662" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Grabs a thread&lt;/item&gt;</v>
+        <v>&lt;item&gt;Stands holding onto something&lt;/item&gt;</v>
       </c>
       <c r="F662" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Хватает нитку&lt;/item&gt;</v>
+        <v>&lt;item&gt;Стоит, держась за что-нибудь&lt;/item&gt;</v>
       </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
@@ -18510,19 +18507,19 @@
         <v>841</v>
       </c>
       <c r="B663" s="10" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C663" s="10"/>
       <c r="D663" s="10" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="E663" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Stands holding onto something&lt;/item&gt;</v>
+        <v>&lt;item&gt;Combines syllables&lt;/item&gt;</v>
       </c>
       <c r="F663" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Стоит, держась за что-нибудь&lt;/item&gt;</v>
+        <v>&lt;item&gt;Объединяет слоги&lt;/item&gt;</v>
       </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
@@ -18530,19 +18527,19 @@
         <v>841</v>
       </c>
       <c r="B664" s="10" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="C664" s="10"/>
       <c r="D664" s="10" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="E664" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Combines syllables&lt;/item&gt;</v>
+        <v>&lt;item&gt;Tries to stand up&lt;/item&gt;</v>
       </c>
       <c r="F664" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Объединяет слоги&lt;/item&gt;</v>
+        <v>&lt;item&gt;Пытается встать&lt;/item&gt;</v>
       </c>
     </row>
     <row r="665" spans="1:6" x14ac:dyDescent="0.25">
@@ -18550,19 +18547,19 @@
         <v>841</v>
       </c>
       <c r="B665" s="10" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C665" s="10"/>
       <c r="D665" s="10" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E665" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Tries to stand up&lt;/item&gt;</v>
+        <v>&lt;item&gt;Sits down&lt;/item&gt;</v>
       </c>
       <c r="F665" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Пытается встать&lt;/item&gt;</v>
+        <v>&lt;item&gt;Садится&lt;/item&gt;</v>
       </c>
     </row>
     <row r="666" spans="1:6" x14ac:dyDescent="0.25">
@@ -18570,19 +18567,19 @@
         <v>841</v>
       </c>
       <c r="B666" s="10" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C666" s="10"/>
       <c r="D666" s="10" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="E666" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Sits down&lt;/item&gt;</v>
+        <v>&lt;item&gt;Clatters their heels against each other&lt;/item&gt;</v>
       </c>
       <c r="F666" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Садится&lt;/item&gt;</v>
+        <v>&lt;item&gt;Стучит каблуками друг об друга&lt;/item&gt;</v>
       </c>
     </row>
     <row r="667" spans="1:6" x14ac:dyDescent="0.25">
@@ -18590,19 +18587,19 @@
         <v>841</v>
       </c>
       <c r="B667" s="10" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C667" s="10"/>
       <c r="D667" s="10" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="E667" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Clatters their heels against each other&lt;/item&gt;</v>
+        <v>&lt;item&gt;Mumbles&lt;/item&gt;</v>
       </c>
       <c r="F667" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Стучит каблуками друг об друга&lt;/item&gt;</v>
+        <v>&lt;item&gt;Бормочет&lt;/item&gt;</v>
       </c>
     </row>
     <row r="668" spans="1:6" x14ac:dyDescent="0.25">
@@ -18610,19 +18607,19 @@
         <v>841</v>
       </c>
       <c r="B668" s="10" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="C668" s="10"/>
       <c r="D668" s="10" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="E668" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Mumbles&lt;/item&gt;</v>
+        <v>&lt;item&gt;Plays patty-cake&lt;/item&gt;</v>
       </c>
       <c r="F668" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Бормочет&lt;/item&gt;</v>
+        <v>&lt;item&gt;Играет в ладушки&lt;/item&gt;</v>
       </c>
     </row>
     <row r="669" spans="1:6" x14ac:dyDescent="0.25">
@@ -18630,19 +18627,19 @@
         <v>841</v>
       </c>
       <c r="B669" s="10" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="C669" s="10"/>
       <c r="D669" s="10" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E669" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Plays patty-cake&lt;/item&gt;</v>
+        <v>&lt;item&gt;Stands up for a few seconds&lt;/item&gt;</v>
       </c>
       <c r="F669" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Играет в ладушки&lt;/item&gt;</v>
+        <v>&lt;item&gt;Стоит несколько секунд&lt;/item&gt;</v>
       </c>
     </row>
     <row r="670" spans="1:6" x14ac:dyDescent="0.25">
@@ -18650,19 +18647,19 @@
         <v>841</v>
       </c>
       <c r="B670" s="10" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C670" s="10"/>
       <c r="D670" s="10" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E670" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Stands up for a few seconds&lt;/item&gt;</v>
+        <v>&lt;item&gt;Calls mom or dad&lt;/item&gt;</v>
       </c>
       <c r="F670" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Стоит несколько секунд&lt;/item&gt;</v>
+        <v>&lt;item&gt;Зовет маму, папу&lt;/item&gt;</v>
       </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
@@ -18670,19 +18667,19 @@
         <v>841</v>
       </c>
       <c r="B671" s="10" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C671" s="10"/>
       <c r="D671" s="10" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="E671" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Calls mom or dad&lt;/item&gt;</v>
+        <v>&lt;item&gt;Stands on their own&lt;/item&gt;</v>
       </c>
       <c r="F671" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Зовет маму, папу&lt;/item&gt;</v>
+        <v>&lt;item&gt;Стоит самостоятельно&lt;/item&gt;</v>
       </c>
     </row>
     <row r="672" spans="1:6" x14ac:dyDescent="0.25">
@@ -18690,19 +18687,19 @@
         <v>841</v>
       </c>
       <c r="B672" s="10" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C672" s="10"/>
       <c r="D672" s="10" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E672" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Stands on their own&lt;/item&gt;</v>
+        <v>&lt;item&gt;Bends and straightens themselves&lt;/item&gt;</v>
       </c>
       <c r="F672" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Стоит самостоятельно&lt;/item&gt;</v>
+        <v>&lt;item&gt;Наклоняется и выпрямляется&lt;/item&gt;</v>
       </c>
     </row>
     <row r="673" spans="1:6" x14ac:dyDescent="0.25">
@@ -18710,19 +18707,19 @@
         <v>841</v>
       </c>
       <c r="B673" s="10" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C673" s="10"/>
       <c r="D673" s="10" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E673" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Bends and straightens themselves&lt;/item&gt;</v>
+        <v>&lt;item&gt;Walks on their own&lt;/item&gt;</v>
       </c>
       <c r="F673" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Наклоняется и выпрямляется&lt;/item&gt;</v>
+        <v>&lt;item&gt;Ходит самостоятельно&lt;/item&gt;</v>
       </c>
     </row>
     <row r="674" spans="1:6" x14ac:dyDescent="0.25">
@@ -18730,19 +18727,19 @@
         <v>841</v>
       </c>
       <c r="B674" s="10" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="C674" s="10"/>
       <c r="D674" s="10" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="E674" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Walks on their own&lt;/item&gt;</v>
+        <v>&lt;item&gt;Walks backwards&lt;/item&gt;</v>
       </c>
       <c r="F674" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Ходит самостоятельно&lt;/item&gt;</v>
+        <v>&lt;item&gt;Шагает задом наперед&lt;/item&gt;</v>
       </c>
     </row>
     <row r="675" spans="1:6" x14ac:dyDescent="0.25">
@@ -18750,19 +18747,19 @@
         <v>841</v>
       </c>
       <c r="B675" s="10" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C675" s="10"/>
       <c r="D675" s="10" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="E675" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Walks backwards&lt;/item&gt;</v>
+        <v>&lt;item&gt;Drinks from a cup&lt;/item&gt;</v>
       </c>
       <c r="F675" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Шагает задом наперед&lt;/item&gt;</v>
+        <v>&lt;item&gt;Пьет из чашки&lt;/item&gt;</v>
       </c>
     </row>
     <row r="676" spans="1:6" x14ac:dyDescent="0.25">
@@ -18770,19 +18767,19 @@
         <v>841</v>
       </c>
       <c r="B676" s="10" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C676" s="10"/>
       <c r="D676" s="10" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="E676" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Drinks from a cup&lt;/item&gt;</v>
+        <v>&lt;item&gt;Uses a spoon and a fork&lt;/item&gt;</v>
       </c>
       <c r="F676" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Пьет из чашки&lt;/item&gt;</v>
+        <v>&lt;item&gt;Пользуется ложкой и вилкой&lt;/item&gt;</v>
       </c>
     </row>
     <row r="677" spans="1:6" x14ac:dyDescent="0.25">
@@ -18790,19 +18787,19 @@
         <v>841</v>
       </c>
       <c r="B677" s="10" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="C677" s="10"/>
       <c r="D677" s="10" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="E677" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Uses a spoon and a fork&lt;/item&gt;</v>
+        <v>&lt;item&gt;Runs&lt;/item&gt;</v>
       </c>
       <c r="F677" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Пользуется ложкой и вилкой&lt;/item&gt;</v>
+        <v>&lt;item&gt;Бегает&lt;/item&gt;</v>
       </c>
     </row>
     <row r="678" spans="1:6" x14ac:dyDescent="0.25">
@@ -18810,19 +18807,19 @@
         <v>841</v>
       </c>
       <c r="B678" s="10" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C678" s="10"/>
       <c r="D678" s="10" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E678" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Runs&lt;/item&gt;</v>
+        <v>&lt;item&gt;Walks up the stairs&lt;/item&gt;</v>
       </c>
       <c r="F678" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Бегает&lt;/item&gt;</v>
+        <v>&lt;item&gt;Поднимается по лестнице&lt;/item&gt;</v>
       </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
@@ -18830,19 +18827,19 @@
         <v>841</v>
       </c>
       <c r="B679" s="10" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C679" s="10"/>
       <c r="D679" s="10" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E679" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Walks up the stairs&lt;/item&gt;</v>
+        <v>&lt;item&gt;Takes off clothes&lt;/item&gt;</v>
       </c>
       <c r="F679" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Поднимается по лестнице&lt;/item&gt;</v>
+        <v>&lt;item&gt;Снимает одежду&lt;/item&gt;</v>
       </c>
     </row>
     <row r="680" spans="1:6" x14ac:dyDescent="0.25">
@@ -18850,59 +18847,59 @@
         <v>841</v>
       </c>
       <c r="B680" s="10" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C680" s="10"/>
       <c r="D680" s="10" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E680" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Takes off clothes&lt;/item&gt;</v>
+        <v>&lt;item&gt;Builds a block tower&lt;/item&gt;</v>
       </c>
       <c r="F680" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Снимает одежду&lt;/item&gt;</v>
-      </c>
-    </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;item&gt;Строит башню из кубиков&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A681" s="9" t="s">
         <v>841</v>
       </c>
       <c r="B681" s="10" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="C681" s="10"/>
       <c r="D681" s="10" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E681" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Builds a block tower&lt;/item&gt;</v>
+        <v>&lt;item&gt;Brushes their teeth with the help of an adult&lt;/item&gt;</v>
       </c>
       <c r="F681" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Строит башню из кубиков&lt;/item&gt;</v>
-      </c>
-    </row>
-    <row r="682" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>&lt;item&gt;Чистит зубы с помощью взрослого&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="9" t="s">
         <v>841</v>
       </c>
       <c r="B682" s="10" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="C682" s="10"/>
       <c r="D682" s="10" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="E682" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Brushes their teeth with the help of an adult&lt;/item&gt;</v>
+        <v>&lt;item&gt;Throws a ball&lt;/item&gt;</v>
       </c>
       <c r="F682" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Чистит зубы с помощью взрослого&lt;/item&gt;</v>
+        <v>&lt;item&gt;Подбрасывает мяч&lt;/item&gt;</v>
       </c>
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.25">
@@ -18910,19 +18907,19 @@
         <v>841</v>
       </c>
       <c r="B683" s="10" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C683" s="10"/>
       <c r="D683" s="10" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="E683" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Throws a ball&lt;/item&gt;</v>
+        <v>&lt;item&gt;Speaks partly intelligibly&lt;/item&gt;</v>
       </c>
       <c r="F683" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Подбрасывает мяч&lt;/item&gt;</v>
+        <v>&lt;item&gt;Говорит частично понятно&lt;/item&gt;</v>
       </c>
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.25">
@@ -18930,19 +18927,19 @@
         <v>841</v>
       </c>
       <c r="B684" s="10" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="C684" s="10"/>
       <c r="D684" s="10" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="E684" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Speaks partly intelligibly&lt;/item&gt;</v>
+        <v>&lt;item&gt;Draws a vertical line&lt;/item&gt;</v>
       </c>
       <c r="F684" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Говорит частично понятно&lt;/item&gt;</v>
+        <v>&lt;item&gt;Проводит вертикальную линию&lt;/item&gt;</v>
       </c>
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.25">
@@ -18950,7 +18947,7 @@
         <v>841</v>
       </c>
       <c r="B685" s="10" t="s">
-        <v>1430</v>
+        <v>1348</v>
       </c>
       <c r="C685" s="10"/>
       <c r="D685" s="10" t="s">
@@ -18958,11 +18955,11 @@
       </c>
       <c r="E685" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Draws a vertical line&lt;/item&gt;</v>
+        <v>&lt;item&gt;Washes and wipes their hands&lt;/item&gt;</v>
       </c>
       <c r="F685" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Проводит вертикальную линию&lt;/item&gt;</v>
+        <v>&lt;item&gt;Моет и вытирает руки&lt;/item&gt;</v>
       </c>
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.25">
@@ -18970,19 +18967,19 @@
         <v>841</v>
       </c>
       <c r="B686" s="10" t="s">
-        <v>1349</v>
+        <v>1432</v>
       </c>
       <c r="C686" s="10"/>
       <c r="D686" s="10" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="E686" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Washes and wipes their hands&lt;/item&gt;</v>
+        <v>&lt;item&gt;Puts on clothes&lt;/item&gt;</v>
       </c>
       <c r="F686" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Моет и вытирает руки&lt;/item&gt;</v>
+        <v>&lt;item&gt;Одевается&lt;/item&gt;</v>
       </c>
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.25">
@@ -18990,19 +18987,19 @@
         <v>841</v>
       </c>
       <c r="B687" s="10" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C687" s="10"/>
       <c r="D687" s="10" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E687" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Puts on clothes&lt;/item&gt;</v>
+        <v>&lt;item&gt;Hops&lt;/item&gt;</v>
       </c>
       <c r="F687" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Одевается&lt;/item&gt;</v>
+        <v>&lt;item&gt;Подпрыгивает&lt;/item&gt;</v>
       </c>
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.25">
@@ -19010,53 +19007,33 @@
         <v>841</v>
       </c>
       <c r="B688" s="10" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C688" s="10"/>
       <c r="D688" s="10" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="E688" s="10" t="str">
         <f t="shared" si="62"/>
-        <v>&lt;item&gt;Hops&lt;/item&gt;</v>
+        <v>&lt;item&gt;Speaks intelligibly&lt;/item&gt;</v>
       </c>
       <c r="F688" s="10" t="str">
         <f t="shared" si="63"/>
-        <v>&lt;item&gt;Подпрыгивает&lt;/item&gt;</v>
-      </c>
-    </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+        <v>&lt;item&gt;Говорит внятно&lt;/item&gt;</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="9" t="s">
-        <v>841</v>
-      </c>
-      <c r="B689" s="10" t="s">
-        <v>1437</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="B689" s="10"/>
       <c r="C689" s="10"/>
-      <c r="D689" s="10" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E689" s="10" t="str">
-        <f t="shared" si="62"/>
-        <v>&lt;item&gt;Speaks intelligibly&lt;/item&gt;</v>
-      </c>
-      <c r="F689" s="10" t="str">
-        <f t="shared" si="63"/>
-        <v>&lt;item&gt;Говорит внятно&lt;/item&gt;</v>
-      </c>
-    </row>
-    <row r="690" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A690" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="B690" s="10"/>
-      <c r="C690" s="10"/>
-      <c r="D690" s="10"/>
-      <c r="E690" s="13" t="s">
-        <v>1579</v>
-      </c>
-      <c r="F690" s="13" t="s">
-        <v>1579</v>
+      <c r="D689" s="10"/>
+      <c r="E689" s="13" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F689" s="13" t="s">
+        <v>1578</v>
       </c>
     </row>
   </sheetData>
